--- a/data/hotels_by_city/Denver/Denver_shard_48.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_48.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33668-d85294-Reviews-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Crossland-Denver-Thornton.h208811.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,897 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r545546693-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33668</t>
+  </si>
+  <si>
+    <t>85294</t>
+  </si>
+  <si>
+    <t>545546693</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>FILTHY ROOM.  Uncaring defensive staff.</t>
+  </si>
+  <si>
+    <t>My room was filthy. When I reported it at check out I was challenged - why didn't I report it earlier, as they would have moved me.  No offer to make it right with a discount.  I've worked in hotels, and this is AWFUL.  Well, I checked in, put my bags in the room and raced off to an appointment.  So, no time to inspect the room, where I later found mouse poop in the bedroom, oily icky hair mess in bathroom corners.  Shocked that an extended stay hotel would provide appliances but not one dish, pot, cup or fork.  Worst stay ever.  Mattress horribly stained and filthy.  Rude staff.  This is a hotel where a lot of low income folks are staying for a LONG time as they can't find affordable housing in Denver.  This hotel is not well represented by photos as it's not nearly as nice as pictured!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>My room was filthy. When I reported it at check out I was challenged - why didn't I report it earlier, as they would have moved me.  No offer to make it right with a discount.  I've worked in hotels, and this is AWFUL.  Well, I checked in, put my bags in the room and raced off to an appointment.  So, no time to inspect the room, where I later found mouse poop in the bedroom, oily icky hair mess in bathroom corners.  Shocked that an extended stay hotel would provide appliances but not one dish, pot, cup or fork.  Worst stay ever.  Mattress horribly stained and filthy.  Rude staff.  This is a hotel where a lot of low income folks are staying for a LONG time as they can't find affordable housing in Denver.  This hotel is not well represented by photos as it's not nearly as nice as pictured!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r498309062-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>498309062</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Mosh Pit for a Hotel</t>
+  </si>
+  <si>
+    <t>We booked this hotel at an $85.00 rate and the place was terrible, our room was dirty especially the bathroom.  1 pillow each which were totally useless, no shampoo or even a hair dryer.  We were awoken at 2:30 am by what seemed like some people having a crack or meth party.  We were afraid that we might get bedbugs because of the condition of the hotel.  Stay as far away from this place as possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>We booked this hotel at an $85.00 rate and the place was terrible, our room was dirty especially the bathroom.  1 pillow each which were totally useless, no shampoo or even a hair dryer.  We were awoken at 2:30 am by what seemed like some people having a crack or meth party.  We were afraid that we might get bedbugs because of the condition of the hotel.  Stay as far away from this place as possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r496019327-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>496019327</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Nothing but a homeless shelter</t>
+  </si>
+  <si>
+    <t>Awful. Pay ten dollars more and stay somewhere else. Nothing good to say about this dirty hole. Guests use garbage bags for their luggage. Housekeeping will only change sheets or clean the rooms if you stay seven days. Mostly just a truck stop for semi-truck drivers crash.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Awful. Pay ten dollars more and stay somewhere else. Nothing good to say about this dirty hole. Guests use garbage bags for their luggage. Housekeeping will only change sheets or clean the rooms if you stay seven days. Mostly just a truck stop for semi-truck drivers crash.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r380868043-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>380868043</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel I ever stayed in.</t>
+  </si>
+  <si>
+    <t>We got checked in went to the room which was supposed to be NON - Smoking, the room spelled like smoke. The carpet was FILTHY. The room had a kitchenette but there were no pots, cups, spoons, forks or anything. We were very tired from traveling, we tried to go to sleep, but their was so much noise from the other guests that it was very hard to sleep. We woke up the next day and I went to the front deck for a set of towels for my wife and was told that I had to bring the first set back in order for me to get a second set. We didn't stay there much but for the FOUR days we did stay at NO TIME did any one come to the room to do house cleaning, and when we called the front desk about it we were TOLD THAT BECAUSE WE WERE ONLY STAYING FOUR DAYS AND THAT THEY DON'T CLEAN ROOMS ON A DAILY BASIS. There also was DOG POO right outside our room.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We got checked in went to the room which was supposed to be NON - Smoking, the room spelled like smoke. The carpet was FILTHY. The room had a kitchenette but there were no pots, cups, spoons, forks or anything. We were very tired from traveling, we tried to go to sleep, but their was so much noise from the other guests that it was very hard to sleep. We woke up the next day and I went to the front deck for a set of towels for my wife and was told that I had to bring the first set back in order for me to get a second set. We didn't stay there much but for the FOUR days we did stay at NO TIME did any one come to the room to do house cleaning, and when we called the front desk about it we were TOLD THAT BECAUSE WE WERE ONLY STAYING FOUR DAYS AND THAT THEY DON'T CLEAN ROOMS ON A DAILY BASIS. There also was DOG POO right outside our room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r374660864-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>374660864</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>CHECKED IN AND CHECKED RIGHT OUT</t>
+  </si>
+  <si>
+    <t>I knew I was in trouble when I pulled into the parking lot with the looks of the people standing outside . Got checked in really quickly and walk to my room . Upon  entering the room I always do a quick look around .  Pulled the bedsheets back to see if there was anything wrong with the bed and I noticed one of the pillows had hair on it so I flipped the pillow over and there was a big blood stain.  Grab the pillow and took it down to the office and requested a refund .  That's the only thing good about this hotel is that I did get a refundMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>I knew I was in trouble when I pulled into the parking lot with the looks of the people standing outside . Got checked in really quickly and walk to my room . Upon  entering the room I always do a quick look around .  Pulled the bedsheets back to see if there was anything wrong with the bed and I noticed one of the pillows had hair on it so I flipped the pillow over and there was a big blood stain.  Grab the pillow and took it down to the office and requested a refund .  That's the only thing good about this hotel is that I did get a refundMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r317639907-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>317639907</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>very disappointing</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel in the past and we were so surprised at how it has gone downhill.  It is a studio room with full kitchen.  You have to ask the front desk for any utensils, pots, dishes, etc.  because there is nothing in he room because the people steal them.  It has not been remodeled in years.  The clientele is very strange.  There was a family, mother, father and two children in the room next to us.  They took the kids to school in the morning yelling for them to get ready at 7:00.  The parents fought because she was always going out and getting high.  Crazy.  I saw other reviewers who said negative things about the hotel.  I should have listened to them.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel in the past and we were so surprised at how it has gone downhill.  It is a studio room with full kitchen.  You have to ask the front desk for any utensils, pots, dishes, etc.  because there is nothing in he room because the people steal them.  It has not been remodeled in years.  The clientele is very strange.  There was a family, mother, father and two children in the room next to us.  They took the kids to school in the morning yelling for them to get ready at 7:00.  The parents fought because she was always going out and getting high.  Crazy.  I saw other reviewers who said negative things about the hotel.  I should have listened to them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r287304453-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>287304453</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Quiet in Thorton</t>
+  </si>
+  <si>
+    <t>Hotel staff very pleasant. Economy room two queen beds are firm, pillows a bit soft but overall a good quiet place to stay. Priced a little high for a weekly stay.It is within walking distance to walmart and dunkin doughnuts. Water park close by and public transportation available.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Hotel staff very pleasant. Economy room two queen beds are firm, pillows a bit soft but overall a good quiet place to stay. Priced a little high for a weekly stay.It is within walking distance to walmart and dunkin doughnuts. Water park close by and public transportation available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r286387116-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>286387116</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Small, Stinky, Scary!</t>
+  </si>
+  <si>
+    <t>I did not do normal research on this hotel as it was included in a prepaid Orbitz package where I requested a "double, non-smoking".  Got a smoking room with small double (didn't know doubles were that small).  The TV was blurry so we couldn't even distract ourselves.  No maid service.SMALL:  I don't think some of the staff could fit in the shower or on the toilet.  The bed made noise with every movement like it was crushing rocks. STINKY: I went to the store, bought rug freshener, air freshener, dehumidifier; still all of our clothes and luggage smelled like smoke even the CPAP mask.  Just got home and still everything smells like cigarette smoke.  When I was told that they only had a smoking room available I asked "cigarettes or marijuana" (it's CO after all).  The person behind me answered BOTH!.  Even the elevator was stinky.SCARY:  Guests that I am not used to seeing at other hotels.  Another guest whispered that there were drugs going down. Police cars one day, don't know what that was about.Bruce was a helpful employee!  Broke my heart to see little kids riding tricycles on the 3rd floor hallway.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I did not do normal research on this hotel as it was included in a prepaid Orbitz package where I requested a "double, non-smoking".  Got a smoking room with small double (didn't know doubles were that small).  The TV was blurry so we couldn't even distract ourselves.  No maid service.SMALL:  I don't think some of the staff could fit in the shower or on the toilet.  The bed made noise with every movement like it was crushing rocks. STINKY: I went to the store, bought rug freshener, air freshener, dehumidifier; still all of our clothes and luggage smelled like smoke even the CPAP mask.  Just got home and still everything smells like cigarette smoke.  When I was told that they only had a smoking room available I asked "cigarettes or marijuana" (it's CO after all).  The person behind me answered BOTH!.  Even the elevator was stinky.SCARY:  Guests that I am not used to seeing at other hotels.  Another guest whispered that there were drugs going down. Police cars one day, don't know what that was about.Bruce was a helpful employee!  Broke my heart to see little kids riding tricycles on the 3rd floor hallway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r285553144-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>285553144</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst stay ever .. would not recommend it to anyone </t>
+  </si>
+  <si>
+    <t>First of all you book the room ask for a king bed .you get there to check in and are told it's first come first serve! !! Bad idea then you are told you have to pay for the room up front ?? Realy .also the kitchen wares are extra . Then you find out that the room you get has not realy been cleaned by any means. The refrigerator is broken with towels stuffed in it to catch the water . The floor is nasty makes you want to ware your shoes all the time . Staff is not the best !!!!!DON'T STAY HERE IF YOU HAVE TO !!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all you book the room ask for a king bed .you get there to check in and are told it's first come first serve! !! Bad idea then you are told you have to pay for the room up front ?? Realy .also the kitchen wares are extra . Then you find out that the room you get has not realy been cleaned by any means. The refrigerator is broken with towels stuffed in it to catch the water . The floor is nasty makes you want to ware your shoes all the time . Staff is not the best !!!!!DON'T STAY HERE IF YOU HAVE TO !!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r283480617-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>283480617</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Would never recommend anyone stay here</t>
+  </si>
+  <si>
+    <t>This had to be the nastiest place I've ever seen. Once you get past the tobacco spit on the walls and stairs, the Walmart shopping carts, and the dirty stinky clothes hanging on the hand rails you make it to the room. The room smelled like hundreds of cigarettes had been smoked in it and it had never been aired out. Then you walk around the room to see some nasty red substance on the walls. Not sure if blood or not. The counters look like they have never been wiped off. The shower  had so much dirt in the bottom you could plant grass. This was just to list a few. When I spoke with the front desk clerk she was very nice. She did not seem to surprised about me checking out around 5 minutes of checking in. After leaving I have read the numerous numerous numerous complaints and empty responses about fixing the same issues I witnessed. Seriously I would recommend you sleep under a bridge before staying in this rat hole. Here are a few of the pictures I took.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>This had to be the nastiest place I've ever seen. Once you get past the tobacco spit on the walls and stairs, the Walmart shopping carts, and the dirty stinky clothes hanging on the hand rails you make it to the room. The room smelled like hundreds of cigarettes had been smoked in it and it had never been aired out. Then you walk around the room to see some nasty red substance on the walls. Not sure if blood or not. The counters look like they have never been wiped off. The shower  had so much dirt in the bottom you could plant grass. This was just to list a few. When I spoke with the front desk clerk she was very nice. She did not seem to surprised about me checking out around 5 minutes of checking in. After leaving I have read the numerous numerous numerous complaints and empty responses about fixing the same issues I witnessed. Seriously I would recommend you sleep under a bridge before staying in this rat hole. Here are a few of the pictures I took.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r282267871-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>282267871</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>The woman who checked me in at 1am came to my room and helped me get myself and my children unloaded after a very bad day. The room, though small, provided the amenities that I needed for my few day stay. My only complaint was that the carpet was in need of shampooing, as it turned my babies' hands and feet black when they crawled on it. In addition to my feet. But it wasn't that big of a deal.I feel the room met my expectations, but the customer service exceeded my expectations. I will suggest that trash pickup happen more frequently however.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>The woman who checked me in at 1am came to my room and helped me get myself and my children unloaded after a very bad day. The room, though small, provided the amenities that I needed for my few day stay. My only complaint was that the carpet was in need of shampooing, as it turned my babies' hands and feet black when they crawled on it. In addition to my feet. But it wasn't that big of a deal.I feel the room met my expectations, but the customer service exceeded my expectations. I will suggest that trash pickup happen more frequently however.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r266701838-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>266701838</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Don't stay more than 1 night</t>
+  </si>
+  <si>
+    <t>Extended stay motels position themselves as home away from home...not true here. While relocating after employment, were  annoyed when after 2 weeks, we still couldn't get a washing machine (2 out of 4 washers have been "out of service please be patient") since March 27 when we checked in.  My husband tried to microwave cup of coffee last night and microwave sparked all over kitchen. Did not tell me; when I tried micro it sparked once again (as crossland knew, the glass plate in microwave does not rotate) so they shouldn't be surprised that this happened). When I called 2 times to tell them my micro was on fire (2 times)to front desk, 3 women who did not identify themselves looked around for15 seconds and said maintenance would be here tomorrow.  I said "is that really your solution.?!!!" This isn't about money,although I'm pretty sure it is.  I paid for service as advertised. Shame on the business owner.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded April 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2015</t>
+  </si>
+  <si>
+    <t>Extended stay motels position themselves as home away from home...not true here. While relocating after employment, were  annoyed when after 2 weeks, we still couldn't get a washing machine (2 out of 4 washers have been "out of service please be patient") since March 27 when we checked in.  My husband tried to microwave cup of coffee last night and microwave sparked all over kitchen. Did not tell me; when I tried micro it sparked once again (as crossland knew, the glass plate in microwave does not rotate) so they shouldn't be surprised that this happened). When I called 2 times to tell them my micro was on fire (2 times)to front desk, 3 women who did not identify themselves looked around for15 seconds and said maintenance would be here tomorrow.  I said "is that really your solution.?!!!" This isn't about money,although I'm pretty sure it is.  I paid for service as advertised. Shame on the business owner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r229927564-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>229927564</t>
+  </si>
+  <si>
+    <t>09/20/2014</t>
+  </si>
+  <si>
+    <t>good value</t>
+  </si>
+  <si>
+    <t>Really clean, comfortable beds, nice and friendly front staff, what more can you ask for?Really price worthy. Kitchen utensils are handed out by reception when asked for. They are really clean also. Recommend this for budget travellers.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded September 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2014</t>
+  </si>
+  <si>
+    <t>Really clean, comfortable beds, nice and friendly front staff, what more can you ask for?Really price worthy. Kitchen utensils are handed out by reception when asked for. They are really clean also. Recommend this for budget travellers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r228838794-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>228838794</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>PricelineExpressDeal</t>
+  </si>
+  <si>
+    <t>Wow! Where do I begin? They were suppose to put me in a double bed but instead they put me in a room that was a UV light nightmare (crime scene). You can feel the springs on the bed, the actual cracks on the floor, the smell of smoke in the air all while having to endure 80's-like accommodating appliances. I was guaranteed a double bed but they (crossland) put me in a single bed via Priceline. They (crossland) would not accommodate for a room change or a refund for my quoted guarantee via priceline. Consumer beware!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded October 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2014</t>
+  </si>
+  <si>
+    <t>Wow! Where do I begin? They were suppose to put me in a double bed but instead they put me in a room that was a UV light nightmare (crime scene). You can feel the springs on the bed, the actual cracks on the floor, the smell of smoke in the air all while having to endure 80's-like accommodating appliances. I was guaranteed a double bed but they (crossland) put me in a single bed via Priceline. They (crossland) would not accommodate for a room change or a refund for my quoted guarantee via priceline. Consumer beware!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r228407898-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>228407898</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>Just go somewhere else</t>
+  </si>
+  <si>
+    <t>Staying at Crossing Economy Studios was the worst experience that I have ever had. After 9 hours of driving we went to check in to the hotel, the employee, informed us the one of the two rooms we had reserved 2 months prior was unavailable. She tried to pull the, "oh, there's nothing I can do routine ,"  we werent having it. She then informed us that she would have to call the manager, and ask what she should do. They shouldn't have people there by themselves that cant fix incidences like this.  She comes back after a while and tells us, she has to wait for the manager to call back. So, we called family, already waiting at the restaurant. To tell them we were waiting for the manager to call back, and we would have to wait to get the issue resolved before meeting them.  Our room situation got figured out. Now an hour late we finally get the keys and just go to meet up with them. No time to shower or change.  We go up to the room, The light flickered, like out of a creepy movie before coming on, the blankets and pillows had hair all on them, there was paint stuck to the sheets,  there looked like there was a blood stain on one of my pillows, there was only like 10 channels. I would think for as much as I paid for this...Staying at Crossing Economy Studios was the worst experience that I have ever had. After 9 hours of driving we went to check in to the hotel, the employee, informed us the one of the two rooms we had reserved 2 months prior was unavailable. She tried to pull the, "oh, there's nothing I can do routine ,"  we werent having it. She then informed us that she would have to call the manager, and ask what she should do. They shouldn't have people there by themselves that cant fix incidences like this.  She comes back after a while and tells us, she has to wait for the manager to call back. So, we called family, already waiting at the restaurant. To tell them we were waiting for the manager to call back, and we would have to wait to get the issue resolved before meeting them.  Our room situation got figured out. Now an hour late we finally get the keys and just go to meet up with them. No time to shower or change.  We go up to the room, The light flickered, like out of a creepy movie before coming on, the blankets and pillows had hair all on them, there was paint stuck to the sheets,  there looked like there was a blood stain on one of my pillows, there was only like 10 channels. I would think for as much as I paid for this room this hotel would have more than 10 channels. Then I go to take a shower, on the bathroom door there was curly black hair stuck to it, there was also stains all over the door as if it has never been washed. The shower floor was black and once again had hair all over the place, so I was unable to shower because I was so disgusted from how dirty it was. Also on the toilet was a long black hair wrapped around the toilet seat. That's so unsanitary.  I rather have slept in my car with it 30 degrees outside and snowing then stay in the room I recieved. The wifi was a joke.Ur goal is to satisfy your customers, it really doesn't show. Save yourself the hassel and the unsettling sense of filth and go elsewhere!MoreShow less</t>
+  </si>
+  <si>
+    <t>Staying at Crossing Economy Studios was the worst experience that I have ever had. After 9 hours of driving we went to check in to the hotel, the employee, informed us the one of the two rooms we had reserved 2 months prior was unavailable. She tried to pull the, "oh, there's nothing I can do routine ,"  we werent having it. She then informed us that she would have to call the manager, and ask what she should do. They shouldn't have people there by themselves that cant fix incidences like this.  She comes back after a while and tells us, she has to wait for the manager to call back. So, we called family, already waiting at the restaurant. To tell them we were waiting for the manager to call back, and we would have to wait to get the issue resolved before meeting them.  Our room situation got figured out. Now an hour late we finally get the keys and just go to meet up with them. No time to shower or change.  We go up to the room, The light flickered, like out of a creepy movie before coming on, the blankets and pillows had hair all on them, there was paint stuck to the sheets,  there looked like there was a blood stain on one of my pillows, there was only like 10 channels. I would think for as much as I paid for this...Staying at Crossing Economy Studios was the worst experience that I have ever had. After 9 hours of driving we went to check in to the hotel, the employee, informed us the one of the two rooms we had reserved 2 months prior was unavailable. She tried to pull the, "oh, there's nothing I can do routine ,"  we werent having it. She then informed us that she would have to call the manager, and ask what she should do. They shouldn't have people there by themselves that cant fix incidences like this.  She comes back after a while and tells us, she has to wait for the manager to call back. So, we called family, already waiting at the restaurant. To tell them we were waiting for the manager to call back, and we would have to wait to get the issue resolved before meeting them.  Our room situation got figured out. Now an hour late we finally get the keys and just go to meet up with them. No time to shower or change.  We go up to the room, The light flickered, like out of a creepy movie before coming on, the blankets and pillows had hair all on them, there was paint stuck to the sheets,  there looked like there was a blood stain on one of my pillows, there was only like 10 channels. I would think for as much as I paid for this room this hotel would have more than 10 channels. Then I go to take a shower, on the bathroom door there was curly black hair stuck to it, there was also stains all over the door as if it has never been washed. The shower floor was black and once again had hair all over the place, so I was unable to shower because I was so disgusted from how dirty it was. Also on the toilet was a long black hair wrapped around the toilet seat. That's so unsanitary.  I rather have slept in my car with it 30 degrees outside and snowing then stay in the room I recieved. The wifi was a joke.Ur goal is to satisfy your customers, it really doesn't show. Save yourself the hassel and the unsettling sense of filth and go elsewhere!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r204493052-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>204493052</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>Front Desk was friendly enough, but that's about it.</t>
+  </si>
+  <si>
+    <t>I called to book three weeks at this hotel, after we sold our house.  I specifically asked if the room had a full size refrigerator/freezer, since we were bringing the last of our food with us.  I was told that yes, they do have full sized appliances.  When my wife checked in, we found that there was only an under counter refrigerator.  The room smelled like smoke, there was garbage in the stairwell, and the room itself was really dingy.  
+At 10pm that evening (we checked in around 8) I frantically called around to other extended stay places in the area, and everyone was booked for at least the next three days.  Lucky for me, I did manage to find another hotel that was much better and for the same price.  
+I went to check out, stating that the room was not as described to me, and we needed to go to a different hotel.  The clerk at the desk was very friendly.  She told me that I would only be charged for the first night, and the rest of my reservation would be cancelled.  I figured I could discuss the one night's cost with the manager the next day, since we were only in the room for about two hours (just long enough to find another hotel).  
+The next morning, I look at my bank account, and learn I was actually charged for the first full week, not just...I called to book three weeks at this hotel, after we sold our house.  I specifically asked if the room had a full size refrigerator/freezer, since we were bringing the last of our food with us.  I was told that yes, they do have full sized appliances.  When my wife checked in, we found that there was only an under counter refrigerator.  The room smelled like smoke, there was garbage in the stairwell, and the room itself was really dingy.  At 10pm that evening (we checked in around 8) I frantically called around to other extended stay places in the area, and everyone was booked for at least the next three days.  Lucky for me, I did manage to find another hotel that was much better and for the same price.  I went to check out, stating that the room was not as described to me, and we needed to go to a different hotel.  The clerk at the desk was very friendly.  She told me that I would only be charged for the first night, and the rest of my reservation would be cancelled.  I figured I could discuss the one night's cost with the manager the next day, since we were only in the room for about two hours (just long enough to find another hotel).  The next morning, I look at my bank account, and learn I was actually charged for the first full week, not just the first day.  I called the hotel back, and was told the manager would be in at 9AM and would call back.  At 10AM, I called again, and this time I was told the manager wouldn't be in until 9AM the next day.  When I called corporate headquarters, I was transferred to their accounts payable department to discuss reimbursement.  I had to leave a voicemail.  I still haven't heard back.  This was probably the worst hotel experience of my life.  Even at the discounted rate compared to other hotels, it wasn't worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded June 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2014</t>
+  </si>
+  <si>
+    <t>I called to book three weeks at this hotel, after we sold our house.  I specifically asked if the room had a full size refrigerator/freezer, since we were bringing the last of our food with us.  I was told that yes, they do have full sized appliances.  When my wife checked in, we found that there was only an under counter refrigerator.  The room smelled like smoke, there was garbage in the stairwell, and the room itself was really dingy.  
+At 10pm that evening (we checked in around 8) I frantically called around to other extended stay places in the area, and everyone was booked for at least the next three days.  Lucky for me, I did manage to find another hotel that was much better and for the same price.  
+I went to check out, stating that the room was not as described to me, and we needed to go to a different hotel.  The clerk at the desk was very friendly.  She told me that I would only be charged for the first night, and the rest of my reservation would be cancelled.  I figured I could discuss the one night's cost with the manager the next day, since we were only in the room for about two hours (just long enough to find another hotel).  
+The next morning, I look at my bank account, and learn I was actually charged for the first full week, not just...I called to book three weeks at this hotel, after we sold our house.  I specifically asked if the room had a full size refrigerator/freezer, since we were bringing the last of our food with us.  I was told that yes, they do have full sized appliances.  When my wife checked in, we found that there was only an under counter refrigerator.  The room smelled like smoke, there was garbage in the stairwell, and the room itself was really dingy.  At 10pm that evening (we checked in around 8) I frantically called around to other extended stay places in the area, and everyone was booked for at least the next three days.  Lucky for me, I did manage to find another hotel that was much better and for the same price.  I went to check out, stating that the room was not as described to me, and we needed to go to a different hotel.  The clerk at the desk was very friendly.  She told me that I would only be charged for the first night, and the rest of my reservation would be cancelled.  I figured I could discuss the one night's cost with the manager the next day, since we were only in the room for about two hours (just long enough to find another hotel).  The next morning, I look at my bank account, and learn I was actually charged for the first full week, not just the first day.  I called the hotel back, and was told the manager would be in at 9AM and would call back.  At 10AM, I called again, and this time I was told the manager wouldn't be in until 9AM the next day.  When I called corporate headquarters, I was transferred to their accounts payable department to discuss reimbursement.  I had to leave a voicemail.  I still haven't heard back.  This was probably the worst hotel experience of my life.  Even at the discounted rate compared to other hotels, it wasn't worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r200843214-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>200843214</t>
+  </si>
+  <si>
+    <t>04/12/2014</t>
+  </si>
+  <si>
+    <t>Checked out after 10 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISGUSTING. Worst hotel I have ever been in. Filthy. Broken items in the room. Dead bugs in light fixtures. Dirty stained sheets. The whole place is filthy. One lamp was broken.   The dishes were dirty. Water damaged counters.  Windows were dirty. Walk ways needed cleaning. Staff didn't want to be there. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r197646084-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>197646084</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>Terrible Hotel, Don't Stay Here</t>
+  </si>
+  <si>
+    <t>Drove into the parking lot on the first night of a seven night stay.  Immediately saw a group of hispanic men standing around drinking beer at the tailgate of their pickup truck.  Looked around and it seemed as if every vehicle was from a construction company or of someone using the place as a flophouse.  The building itself seemed to be in a not-so-nice part of town right next to train tracks and a large furniture factory.  The office was tiny, dirty, and had two young girls who didn't know the procedure very well.  They will also charge you a $100 deposit that no one told me about.  Sidewalks, stairs, outside walkways were all covered in cigarette butts and horribly dirty.  The room was tiny and not cleaned well.  Wireless did not work at all even after being given the password and name several times.  I felt very uneasy about leaving anything of value in my car or in the room.  I didn't even stay there the first night, preferring to stay with a friend an hour away.  I couldn't receive a refund for that night as it was after the 24hr cancellation policy.  I checked out for the remaining six nights without ever staying there and will never ever go back.  The weekly rate of $41/night attracted me at first but is most definitely not worth the conditions of the hotel.  Still waiting on the refund for the remainder...Drove into the parking lot on the first night of a seven night stay.  Immediately saw a group of hispanic men standing around drinking beer at the tailgate of their pickup truck.  Looked around and it seemed as if every vehicle was from a construction company or of someone using the place as a flophouse.  The building itself seemed to be in a not-so-nice part of town right next to train tracks and a large furniture factory.  The office was tiny, dirty, and had two young girls who didn't know the procedure very well.  They will also charge you a $100 deposit that no one told me about.  Sidewalks, stairs, outside walkways were all covered in cigarette butts and horribly dirty.  The room was tiny and not cleaned well.  Wireless did not work at all even after being given the password and name several times.  I felt very uneasy about leaving anything of value in my car or in the room.  I didn't even stay there the first night, preferring to stay with a friend an hour away.  I couldn't receive a refund for that night as it was after the 24hr cancellation policy.  I checked out for the remaining six nights without ever staying there and will never ever go back.  The weekly rate of $41/night attracted me at first but is most definitely not worth the conditions of the hotel.  Still waiting on the refund for the remainder of my stay 4 days later.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded June 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2014</t>
+  </si>
+  <si>
+    <t>Drove into the parking lot on the first night of a seven night stay.  Immediately saw a group of hispanic men standing around drinking beer at the tailgate of their pickup truck.  Looked around and it seemed as if every vehicle was from a construction company or of someone using the place as a flophouse.  The building itself seemed to be in a not-so-nice part of town right next to train tracks and a large furniture factory.  The office was tiny, dirty, and had two young girls who didn't know the procedure very well.  They will also charge you a $100 deposit that no one told me about.  Sidewalks, stairs, outside walkways were all covered in cigarette butts and horribly dirty.  The room was tiny and not cleaned well.  Wireless did not work at all even after being given the password and name several times.  I felt very uneasy about leaving anything of value in my car or in the room.  I didn't even stay there the first night, preferring to stay with a friend an hour away.  I couldn't receive a refund for that night as it was after the 24hr cancellation policy.  I checked out for the remaining six nights without ever staying there and will never ever go back.  The weekly rate of $41/night attracted me at first but is most definitely not worth the conditions of the hotel.  Still waiting on the refund for the remainder...Drove into the parking lot on the first night of a seven night stay.  Immediately saw a group of hispanic men standing around drinking beer at the tailgate of their pickup truck.  Looked around and it seemed as if every vehicle was from a construction company or of someone using the place as a flophouse.  The building itself seemed to be in a not-so-nice part of town right next to train tracks and a large furniture factory.  The office was tiny, dirty, and had two young girls who didn't know the procedure very well.  They will also charge you a $100 deposit that no one told me about.  Sidewalks, stairs, outside walkways were all covered in cigarette butts and horribly dirty.  The room was tiny and not cleaned well.  Wireless did not work at all even after being given the password and name several times.  I felt very uneasy about leaving anything of value in my car or in the room.  I didn't even stay there the first night, preferring to stay with a friend an hour away.  I couldn't receive a refund for that night as it was after the 24hr cancellation policy.  I checked out for the remaining six nights without ever staying there and will never ever go back.  The weekly rate of $41/night attracted me at first but is most definitely not worth the conditions of the hotel.  Still waiting on the refund for the remainder of my stay 4 days later.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r179996391-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>179996391</t>
+  </si>
+  <si>
+    <t>10/06/2013</t>
+  </si>
+  <si>
+    <t>dont waste your money</t>
+  </si>
+  <si>
+    <t>I stayed here with my husband as we were displaced and looking for a new home and we were very diappointed, the room was dirty upon check there was dog hair all over the place as well as dog food on the carpet and we didnt have a dog..hmm. the ceiling was bubbling, the internet connection was a joke, we tried to check out early since we found a house and were told that we couldnt check out because we were going to owe money...who does this? charge you for a room that you didnt even stay in? be very careful when you stay here. The parking lot is very unsafe, police 24/7 because of all of the break ins. we were very diappointed and should have saved ourselves the 500 dollars that we spent for the twelve days when we only stayed 9 of these days and there was never a manager available to refund us the money that we are owed. NEVER EVER WILL I STAY HERE AGAIN OR RECOMMEND THIS PROPERTY TO ANYONE-THEY WILL STEAL YOUR MONEYMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here with my husband as we were displaced and looking for a new home and we were very diappointed, the room was dirty upon check there was dog hair all over the place as well as dog food on the carpet and we didnt have a dog..hmm. the ceiling was bubbling, the internet connection was a joke, we tried to check out early since we found a house and were told that we couldnt check out because we were going to owe money...who does this? charge you for a room that you didnt even stay in? be very careful when you stay here. The parking lot is very unsafe, police 24/7 because of all of the break ins. we were very diappointed and should have saved ourselves the 500 dollars that we spent for the twelve days when we only stayed 9 of these days and there was never a manager available to refund us the money that we are owed. NEVER EVER WILL I STAY HERE AGAIN OR RECOMMEND THIS PROPERTY TO ANYONE-THEY WILL STEAL YOUR MONEYMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r176782419-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>176782419</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>A Waste Of My Money</t>
+  </si>
+  <si>
+    <t>Where to start…… Well at first we chose this place because there website showed it was a good/safe place to stay. But boy was I wrong!! Let me start by saying there front desk staff is young and inexperienced an very unprofessional!! The room that was given was TERRIBLE!! When we first opened the door to the room it reeked soo bad and the place looked dirty, I complained to the front desk and they said housekeeping would not be available to us until the 7th day which to me is ridiculous!  Well as we looked further the paint was chipping from the walls in the bathroom things did not function right there was water mold on the shower head, the tiny kitchen was ok but the fridge was dirty looked like it had not been clean in a month the sheets were just out right nasty we had to go out an purchase our own sheets and blankets to put on the bed!! And the noise level in this place is crazy children running up and down hallways and music blasting an people fight an shouting that you can hear them through the walls!! So I have to say please DON’T waste your money or time in that place it not worth it they should be ashamed to have a place like that and charge the rates they do for this disgusting place!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded July 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2014</t>
+  </si>
+  <si>
+    <t>Where to start…… Well at first we chose this place because there website showed it was a good/safe place to stay. But boy was I wrong!! Let me start by saying there front desk staff is young and inexperienced an very unprofessional!! The room that was given was TERRIBLE!! When we first opened the door to the room it reeked soo bad and the place looked dirty, I complained to the front desk and they said housekeeping would not be available to us until the 7th day which to me is ridiculous!  Well as we looked further the paint was chipping from the walls in the bathroom things did not function right there was water mold on the shower head, the tiny kitchen was ok but the fridge was dirty looked like it had not been clean in a month the sheets were just out right nasty we had to go out an purchase our own sheets and blankets to put on the bed!! And the noise level in this place is crazy children running up and down hallways and music blasting an people fight an shouting that you can hear them through the walls!! So I have to say please DON’T waste your money or time in that place it not worth it they should be ashamed to have a place like that and charge the rates they do for this disgusting place!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r170729947-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>170729947</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>Run like heck!</t>
+  </si>
+  <si>
+    <t>I and my family came here to stay for a month. At first it seemed fine and reasonably situated with walking paths nearby, but things went downhill rapidly. We first stopped to look here and had to wait till the afternoon to see a room. So we took a drive to look at the Crossland Studios by the airport. The neighborhood there looked awful, so we returned, exhausted, signed the agreement, then went into our room. This was a tiny room with 2 queen-size beds for the 4 of us. Not terrible, but the furniture is cheap, the kitchen minimal. Some of the furniture was delaminating. Wifi performance was worse than dial-up. For an extra fee you can buy what is billed as "up to 2 times faster". Twice nothing is still nothing, so we passed. With luck, you can get your email to load. Don't even hope for streaming audio or video.
+After a few days, a drug dealer moved in next door to us. Loud music in the middle of the night, frequent visitors (the security doors were frequently propped open). Complaints to the front desk were useless. They suggested *we* call the police. After a few days they were kicked out.
+Most days would find anywhere from 2 to 5 police cars parked in the lot for various problems. At one point a substitute worker from a different hotel was working the desk and made a surprised...I and my family came here to stay for a month. At first it seemed fine and reasonably situated with walking paths nearby, but things went downhill rapidly. We first stopped to look here and had to wait till the afternoon to see a room. So we took a drive to look at the Crossland Studios by the airport. The neighborhood there looked awful, so we returned, exhausted, signed the agreement, then went into our room. This was a tiny room with 2 queen-size beds for the 4 of us. Not terrible, but the furniture is cheap, the kitchen minimal. Some of the furniture was delaminating. Wifi performance was worse than dial-up. For an extra fee you can buy what is billed as "up to 2 times faster". Twice nothing is still nothing, so we passed. With luck, you can get your email to load. Don't even hope for streaming audio or video.After a few days, a drug dealer moved in next door to us. Loud music in the middle of the night, frequent visitors (the security doors were frequently propped open). Complaints to the front desk were useless. They suggested *we* call the police. After a few days they were kicked out.Most days would find anywhere from 2 to 5 police cars parked in the lot for various problems. At one point a substitute worker from a different hotel was working the desk and made a surprised comment after seeing how much we were paying. I looked back at our agreement and realized they had charged us the daily rate rather than the weekly rate and apparently there were even lower rates, but they wouldn't change or refund the difference. That was the last straw. We didn't feel safe there to begin with, so moved to the Extended Stay Cherry Creek facility. A phone call to Crossland customer service proved useless too. Sorry we're unhappy, can't correct the billing. Too bad, so sad.Note that Crossland Studios are the lowest-end version of a series owned by the same corporation. The next step up is Extended Stay America, then Homestead. Turned out Extended Stay Cherry Creek was cheaper and much nicer (though I really wouldn't recommend any of them). The Crossland a few blocks away from there was a dump and they quoted a higher rate than the better furnished Extended Stay.Bottom line, steer clear of this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I and my family came here to stay for a month. At first it seemed fine and reasonably situated with walking paths nearby, but things went downhill rapidly. We first stopped to look here and had to wait till the afternoon to see a room. So we took a drive to look at the Crossland Studios by the airport. The neighborhood there looked awful, so we returned, exhausted, signed the agreement, then went into our room. This was a tiny room with 2 queen-size beds for the 4 of us. Not terrible, but the furniture is cheap, the kitchen minimal. Some of the furniture was delaminating. Wifi performance was worse than dial-up. For an extra fee you can buy what is billed as "up to 2 times faster". Twice nothing is still nothing, so we passed. With luck, you can get your email to load. Don't even hope for streaming audio or video.
+After a few days, a drug dealer moved in next door to us. Loud music in the middle of the night, frequent visitors (the security doors were frequently propped open). Complaints to the front desk were useless. They suggested *we* call the police. After a few days they were kicked out.
+Most days would find anywhere from 2 to 5 police cars parked in the lot for various problems. At one point a substitute worker from a different hotel was working the desk and made a surprised...I and my family came here to stay for a month. At first it seemed fine and reasonably situated with walking paths nearby, but things went downhill rapidly. We first stopped to look here and had to wait till the afternoon to see a room. So we took a drive to look at the Crossland Studios by the airport. The neighborhood there looked awful, so we returned, exhausted, signed the agreement, then went into our room. This was a tiny room with 2 queen-size beds for the 4 of us. Not terrible, but the furniture is cheap, the kitchen minimal. Some of the furniture was delaminating. Wifi performance was worse than dial-up. For an extra fee you can buy what is billed as "up to 2 times faster". Twice nothing is still nothing, so we passed. With luck, you can get your email to load. Don't even hope for streaming audio or video.After a few days, a drug dealer moved in next door to us. Loud music in the middle of the night, frequent visitors (the security doors were frequently propped open). Complaints to the front desk were useless. They suggested *we* call the police. After a few days they were kicked out.Most days would find anywhere from 2 to 5 police cars parked in the lot for various problems. At one point a substitute worker from a different hotel was working the desk and made a surprised comment after seeing how much we were paying. I looked back at our agreement and realized they had charged us the daily rate rather than the weekly rate and apparently there were even lower rates, but they wouldn't change or refund the difference. That was the last straw. We didn't feel safe there to begin with, so moved to the Extended Stay Cherry Creek facility. A phone call to Crossland customer service proved useless too. Sorry we're unhappy, can't correct the billing. Too bad, so sad.Note that Crossland Studios are the lowest-end version of a series owned by the same corporation. The next step up is Extended Stay America, then Homestead. Turned out Extended Stay Cherry Creek was cheaper and much nicer (though I really wouldn't recommend any of them). The Crossland a few blocks away from there was a dump and they quoted a higher rate than the better furnished Extended Stay.Bottom line, steer clear of this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r166571387-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>166571387</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>Not the Best but not the Worst!!!</t>
+  </si>
+  <si>
+    <t>The room was a nice size, but it smelled like smoke even though it was a NON Smoking room!!! There was not a lot of noise for being by a busy street and highway. It was not the worst Hotel I have stayed at but it is not the best either, I thought it was a little high in price for the room, but overall it was a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2013</t>
+  </si>
+  <si>
+    <t>The room was a nice size, but it smelled like smoke even though it was a NON Smoking room!!! There was not a lot of noise for being by a busy street and highway. It was not the worst Hotel I have stayed at but it is not the best either, I thought it was a little high in price for the room, but overall it was a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r158885864-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>158885864</t>
+  </si>
+  <si>
+    <t>04/26/2013</t>
+  </si>
+  <si>
+    <t>I would save your money and go to motel 6</t>
+  </si>
+  <si>
+    <t>I reserved this through a third party website. No refunds are allowed for any reason. Do not stay here if you want privacy, because it does not happen. The desk clerk announces your room number so your neighbors can hear. I am very disgusted at the cleanliness of the roomMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded May 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2013</t>
+  </si>
+  <si>
+    <t>I reserved this through a third party website. No refunds are allowed for any reason. Do not stay here if you want privacy, because it does not happen. The desk clerk announces your room number so your neighbors can hear. I am very disgusted at the cleanliness of the roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r158287047-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>158287047</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>Not a place for using the internet</t>
+  </si>
+  <si>
+    <t>I can say some good things about this hotel:
+1.  The beds (at least mine) were very comfortable.
+2.  The staff is very friendly if not overly helpful.
+3.  The location is very convenient.
+Unfortunately, that's where the good stuff ends:
+1.  The wifi is indeed free but is still overpriced even at free.  There is a 1MB connection to be shared by all guests and it will make you feel sentimental for those days of 1200 baud dial up modems.  Took 40 minutes to download a 5MB file.  But you can get up at 3AM and get a decent (not good) internet speed.  I complained and was told that many had complained, that they had new equipment ordered, but it had been on order for some time and they had no idea if or when it might arrive or be installed.  I called the tech support line and got a VERY helpful and knowledgeable person (case 6130177).  I was going to purchase the upgraded internet service but alas, THIS HOTEL doesn’t have or offer this service. 
+2.  Smoking is excluded from all rooms on floor 1 &amp; 2 but people smoke on the balcony and you might as well be smoking in your room.  Second hand smoke is everywhere and enters the room.
+3.  The mini (emphasis on MINI) fridge has a freezer that is ice bound but will not make ice.
+4.  Half of all the water handles...I can say some good things about this hotel:1.  The beds (at least mine) were very comfortable.2.  The staff is very friendly if not overly helpful.3.  The location is very convenient.Unfortunately, that's where the good stuff ends:1.  The wifi is indeed free but is still overpriced even at free.  There is a 1MB connection to be shared by all guests and it will make you feel sentimental for those days of 1200 baud dial up modems.  Took 40 minutes to download a 5MB file.  But you can get up at 3AM and get a decent (not good) internet speed.  I complained and was told that many had complained, that they had new equipment ordered, but it had been on order for some time and they had no idea if or when it might arrive or be installed.  I called the tech support line and got a VERY helpful and knowledgeable person (case 6130177).  I was going to purchase the upgraded internet service but alas, THIS HOTEL doesn’t have or offer this service. 2.  Smoking is excluded from all rooms on floor 1 &amp; 2 but people smoke on the balcony and you might as well be smoking in your room.  Second hand smoke is everywhere and enters the room.3.  The mini (emphasis on MINI) fridge has a freezer that is ice bound but will not make ice.4.  Half of all the water handles (kitchen sink, bathroom sink, shower) turn in reverse causing instant scalding and freezing and management did not seem to care that this is a safety hazard and in violation of building code laws.5.  Toaster in the room?  Not here.6.  A side benefit: you get to know exactly when your next door neighbor gets up, goes to the bathroom, flushes the toilet, etc.  7.  If you have a Sprint phone, don't even bother turning it on.  You are either on roaming or have a "no signal". 8.  The bathroom sink will not seal closed to hold water.9.  Ditto for the kitchen sink.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded June 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2013</t>
+  </si>
+  <si>
+    <t>I can say some good things about this hotel:
+1.  The beds (at least mine) were very comfortable.
+2.  The staff is very friendly if not overly helpful.
+3.  The location is very convenient.
+Unfortunately, that's where the good stuff ends:
+1.  The wifi is indeed free but is still overpriced even at free.  There is a 1MB connection to be shared by all guests and it will make you feel sentimental for those days of 1200 baud dial up modems.  Took 40 minutes to download a 5MB file.  But you can get up at 3AM and get a decent (not good) internet speed.  I complained and was told that many had complained, that they had new equipment ordered, but it had been on order for some time and they had no idea if or when it might arrive or be installed.  I called the tech support line and got a VERY helpful and knowledgeable person (case 6130177).  I was going to purchase the upgraded internet service but alas, THIS HOTEL doesn’t have or offer this service. 
+2.  Smoking is excluded from all rooms on floor 1 &amp; 2 but people smoke on the balcony and you might as well be smoking in your room.  Second hand smoke is everywhere and enters the room.
+3.  The mini (emphasis on MINI) fridge has a freezer that is ice bound but will not make ice.
+4.  Half of all the water handles...I can say some good things about this hotel:1.  The beds (at least mine) were very comfortable.2.  The staff is very friendly if not overly helpful.3.  The location is very convenient.Unfortunately, that's where the good stuff ends:1.  The wifi is indeed free but is still overpriced even at free.  There is a 1MB connection to be shared by all guests and it will make you feel sentimental for those days of 1200 baud dial up modems.  Took 40 minutes to download a 5MB file.  But you can get up at 3AM and get a decent (not good) internet speed.  I complained and was told that many had complained, that they had new equipment ordered, but it had been on order for some time and they had no idea if or when it might arrive or be installed.  I called the tech support line and got a VERY helpful and knowledgeable person (case 6130177).  I was going to purchase the upgraded internet service but alas, THIS HOTEL doesn’t have or offer this service. 2.  Smoking is excluded from all rooms on floor 1 &amp; 2 but people smoke on the balcony and you might as well be smoking in your room.  Second hand smoke is everywhere and enters the room.3.  The mini (emphasis on MINI) fridge has a freezer that is ice bound but will not make ice.4.  Half of all the water handles (kitchen sink, bathroom sink, shower) turn in reverse causing instant scalding and freezing and management did not seem to care that this is a safety hazard and in violation of building code laws.5.  Toaster in the room?  Not here.6.  A side benefit: you get to know exactly when your next door neighbor gets up, goes to the bathroom, flushes the toilet, etc.  7.  If you have a Sprint phone, don't even bother turning it on.  You are either on roaming or have a "no signal". 8.  The bathroom sink will not seal closed to hold water.9.  Ditto for the kitchen sink.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r156154868-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>156154868</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>Waste of Money</t>
+  </si>
+  <si>
+    <t>I booked this because I have stayed at Extended Stay before and loved it, I came to this property and it was HORRIBLE, the beds are firm, there is only 3 drawers for a dresser, no actual closet and no couch area. We were assigned a room on the second floor, we rode the elevator up but on the 2nd floor the doors didn't open and we ended up riding the elevator back down to first floor, the only positive is the desk agent was friendly enough and didn't argue with me when I asked for my money back....MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded April 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2013</t>
+  </si>
+  <si>
+    <t>I booked this because I have stayed at Extended Stay before and loved it, I came to this property and it was HORRIBLE, the beds are firm, there is only 3 drawers for a dresser, no actual closet and no couch area. We were assigned a room on the second floor, we rode the elevator up but on the 2nd floor the doors didn't open and we ended up riding the elevator back down to first floor, the only positive is the desk agent was friendly enough and didn't argue with me when I asked for my money back....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r154401360-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>154401360</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Other must be better</t>
+  </si>
+  <si>
+    <t>This was the second last night of our road trip out west. We stayed in motels for 22 nights on this trip. This room was the 2nd worst room of all of them. It was old and dingy. The TV was very small and sat very low on a dresser. The thing we really did not like was the bed. I thought when I made the reservation that asked for a Queen or a king and what it turned out to be was a full size. On top of that it was not to comfortable and the mattress must have been covered with plastic because every time you turned you could here the crunch of the plastic below you. The stair way also made me fell like I was in some low income housing project.Sorry I won't be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded March 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2013</t>
+  </si>
+  <si>
+    <t>This was the second last night of our road trip out west. We stayed in motels for 22 nights on this trip. This room was the 2nd worst room of all of them. It was old and dingy. The TV was very small and sat very low on a dresser. The thing we really did not like was the bed. I thought when I made the reservation that asked for a Queen or a king and what it turned out to be was a full size. On top of that it was not to comfortable and the mattress must have been covered with plastic because every time you turned you could here the crunch of the plastic below you. The stair way also made me fell like I was in some low income housing project.Sorry I won't be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r150953796-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>150953796</t>
+  </si>
+  <si>
+    <t>01/29/2013</t>
+  </si>
+  <si>
+    <t>Very friendly staff, great location, overall terrific place to stay.</t>
+  </si>
+  <si>
+    <t>From the time I entered the office,I was greeted by very friendly helpful staff and was helped right away. My room was very spacious and clean, freshly carpeted and painted which was very nice. The location was convenient very close to I-25 &amp; downtown Denver. My stay was in all exceptional and I will stay again when I come back to town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded February 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2013</t>
+  </si>
+  <si>
+    <t>From the time I entered the office,I was greeted by very friendly helpful staff and was helped right away. My room was very spacious and clean, freshly carpeted and painted which was very nice. The location was convenient very close to I-25 &amp; downtown Denver. My stay was in all exceptional and I will stay again when I come back to town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r145535566-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>145535566</t>
+  </si>
+  <si>
+    <t>11/16/2012</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>The value was great and I really hope to get the same value in the future. Front desk was very nice as well as house keeping. Deana from house keeping was very nice and exstremly helpful. I would recomend this place to freinds and I would also stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded November 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2012</t>
+  </si>
+  <si>
+    <t>The value was great and I really hope to get the same value in the future. Front desk was very nice as well as house keeping. Deana from house keeping was very nice and exstremly helpful. I would recomend this place to freinds and I would also stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r134012704-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>134012704</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>BEWARE!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Hairs all over beds, sheets, pillows and towels! long black hairs! we asked for them to clean sheets and towels and the staff was rude, both the front desk and the maid who brought up 'clean' towels and sheets, but they were still covered in hairs! we also had a bug infestation of beetles and spiders all over in the room, the smell was horrible- cigarettes and urine, as if someone is smoking whenever the ac turns on, we got locked out of our room for over an hour because of the door itself had dead batteries in it. At least the lady who helped us in was nice to us. pics here are misleading, TOTAL CRAP! Will not stay again, BEWARE! TWO WEEKS OF TORTURE!!! If you want to experience FEAR FACTOR, stay in this hotel, because there will be beetles crawling on you all night long! If i could give a negative rating, I would!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>Hairs all over beds, sheets, pillows and towels! long black hairs! we asked for them to clean sheets and towels and the staff was rude, both the front desk and the maid who brought up 'clean' towels and sheets, but they were still covered in hairs! we also had a bug infestation of beetles and spiders all over in the room, the smell was horrible- cigarettes and urine, as if someone is smoking whenever the ac turns on, we got locked out of our room for over an hour because of the door itself had dead batteries in it. At least the lady who helped us in was nice to us. pics here are misleading, TOTAL CRAP! Will not stay again, BEWARE! TWO WEEKS OF TORTURE!!! If you want to experience FEAR FACTOR, stay in this hotel, because there will be beetles crawling on you all night long! If i could give a negative rating, I would!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r132987313-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>132987313</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>Bedbugs in Crossland</t>
+  </si>
+  <si>
+    <t>We were shocked by the conditions that we found at your hotel.We arrived at 1am Thursday night, absolutely exhausted. Jamee checked us in a very professional and friendly manner.We were given room #231 which had beg bugs all over the mattress, still alive, walking around. We took a video of it. Jamee kindly switched us to room #224. The lamp was broken, it was a dark and smelly. There were bed bugs and dried blood stains on the mattress. Another room infested with bed bugs. We were disgusted. We lost our faith in your brand. After spending close to two hours (checking rooms and making phone calls to try and find another hotel), we left. This ruined our night and the next day.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded August 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2012</t>
+  </si>
+  <si>
+    <t>We were shocked by the conditions that we found at your hotel.We arrived at 1am Thursday night, absolutely exhausted. Jamee checked us in a very professional and friendly manner.We were given room #231 which had beg bugs all over the mattress, still alive, walking around. We took a video of it. Jamee kindly switched us to room #224. The lamp was broken, it was a dark and smelly. There were bed bugs and dried blood stains on the mattress. Another room infested with bed bugs. We were disgusted. We lost our faith in your brand. After spending close to two hours (checking rooms and making phone calls to try and find another hotel), we left. This ruined our night and the next day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r119802895-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>119802895</t>
+  </si>
+  <si>
+    <t>10/27/2011</t>
+  </si>
+  <si>
+    <t>When the front desk leaves... trouble comes out to play</t>
+  </si>
+  <si>
+    <t>I used Priceline 'name your price' and got this location to stay in. I read the reviews and was VERY hesitant about going by myself. Luckily I had a friend go with me so I would feel more comfortable. The accommodations were clean and comfortable. All was fine until about 11pm at night when the front desk left. People started running up and down the halls screaming, a girl and a guy got in a fight and started screaming about 'how all he ever is going to be is a crackhead and smoking crack'.... needless to say I did NOT feel SAFE or COMFORTABLE here.  All night there was loud music coming from some of the rooms, people yelling or going crazy. Will not stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I used Priceline 'name your price' and got this location to stay in. I read the reviews and was VERY hesitant about going by myself. Luckily I had a friend go with me so I would feel more comfortable. The accommodations were clean and comfortable. All was fine until about 11pm at night when the front desk left. People started running up and down the halls screaming, a girl and a guy got in a fight and started screaming about 'how all he ever is going to be is a crackhead and smoking crack'.... needless to say I did NOT feel SAFE or COMFORTABLE here.  All night there was loud music coming from some of the rooms, people yelling or going crazy. Will not stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r115306397-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>115306397</t>
+  </si>
+  <si>
+    <t>07/12/2011</t>
+  </si>
+  <si>
+    <t>Buyer beware!</t>
+  </si>
+  <si>
+    <t>I got this through Priceline and had no choice on where I was going to stay. The room had no shower curtain, I had to go to the office to get one. I stayed there three days, and not once did a maid come into the room. After calling the office, I was told there is no maid service until you stay there 7 days. Really? That's disgusting.  Upon walking around the "complex", my son and I came upon a room sealed off with red tape. There was a posted sign by the city that the room was seized due to illegal drug manufacturing. This is definitely not a place to take your kids. Had I not already pre-paid for the room, I would have left after the first night. The "residents" that stay there are a little scary too. I had my room locked at all times I was in the room. Oh, and there is no pool there, so don't think about swimming there!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I got this through Priceline and had no choice on where I was going to stay. The room had no shower curtain, I had to go to the office to get one. I stayed there three days, and not once did a maid come into the room. After calling the office, I was told there is no maid service until you stay there 7 days. Really? That's disgusting.  Upon walking around the "complex", my son and I came upon a room sealed off with red tape. There was a posted sign by the city that the room was seized due to illegal drug manufacturing. This is definitely not a place to take your kids. Had I not already pre-paid for the room, I would have left after the first night. The "residents" that stay there are a little scary too. I had my room locked at all times I was in the room. Oh, and there is no pool there, so don't think about swimming there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r75670871-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>75670871</t>
+  </si>
+  <si>
+    <t>08/17/2010</t>
+  </si>
+  <si>
+    <t>A good, affordable place to stay</t>
+  </si>
+  <si>
+    <t>We have stayed at Crosslands three times and plan several more trip to Crossland.  It is centrally located for our business, stores and restaurants, as well as fast food places.We have stayed in both the single and two queen smoking rooms.  We found the single a tad small for us and all the things we bring.  The queen is much more roomy and we like it.  The rooms have always been very clean and well kept.  Having a frig, microwave is very good.  Also, plates, bowels, flatware and pots, pans and a stove are a great addition.The office staff is always helpful and cheery (when I request extra coffee., or when I needed another key card). Even the maid service people are great.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>We have stayed at Crosslands three times and plan several more trip to Crossland.  It is centrally located for our business, stores and restaurants, as well as fast food places.We have stayed in both the single and two queen smoking rooms.  We found the single a tad small for us and all the things we bring.  The queen is much more roomy and we like it.  The rooms have always been very clean and well kept.  Having a frig, microwave is very good.  Also, plates, bowels, flatware and pots, pans and a stove are a great addition.The office staff is always helpful and cheery (when I request extra coffee., or when I needed another key card). Even the maid service people are great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r66912445-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>66912445</t>
+  </si>
+  <si>
+    <t>06/08/2010</t>
+  </si>
+  <si>
+    <t>Discusting, Horrific, Terrible!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>This hotel beds were COVERED in long black human hairs! All over the pillows, all over the sheets, ALL over!!! More than that my husband and I had to call the POLICE to get our money back because the woman at the front desk, Katrina, would not move us or give us our cash back when we refused to sleep in the room. Do not stay here. I am not even that picky about hotels and can stay practically anywhere, but this place was crazy discusting. When we should the police officer the bed he agreed that neither he nor his wife would sleep there. Please believe me when I tell you, you do NOT want to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>This hotel beds were COVERED in long black human hairs! All over the pillows, all over the sheets, ALL over!!! More than that my husband and I had to call the POLICE to get our money back because the woman at the front desk, Katrina, would not move us or give us our cash back when we refused to sleep in the room. Do not stay here. I am not even that picky about hotels and can stay practically anywhere, but this place was crazy discusting. When we should the police officer the bed he agreed that neither he nor his wife would sleep there. Please believe me when I tell you, you do NOT want to stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r34622032-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>34622032</t>
+  </si>
+  <si>
+    <t>07/13/2009</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here.....</t>
+  </si>
+  <si>
+    <t>The creed posted in their office reads "Treat Each Guest as You Would Like to be Treated"....they DO NOT live up to this motto!  We checked in after paying for two Queen beds and were told "there were not Queens available - Housekeeping was gone for the night" and we were given doubles...not what we paid an extra $22 for!  Then when we arrived in our room it smelled horrible and the refrigerator door was open and defrosting - leaking all over the floor.  I called the front desk to have someone come and take care of the wet floor and leaking refrigerator and was told by the front desk clerk, "that is not my job!".  After I said "excuse me?", she was extremely rude and said that she was not a housekeeper and maintenance person - none were available and I'd have to clean up myself and pull the refrigerator out and plug back in to prevent it from leaking more.  I asked why a guest was expected to clean up after another guest - she hung up on me.  
+We spoke to the manager the next morning and he said they were understaffed!  We cancelled our 2nd night at this hotel and moved up the road to a nicer hotel that appreciated and deserved our business!  
+I highly recommend avoiding this hotel.....other rooms in our extended party were dirty and the clientelle walking around seemed questionable - lots...The creed posted in their office reads "Treat Each Guest as You Would Like to be Treated"....they DO NOT live up to this motto!  We checked in after paying for two Queen beds and were told "there were not Queens available - Housekeeping was gone for the night" and we were given doubles...not what we paid an extra $22 for!  Then when we arrived in our room it smelled horrible and the refrigerator door was open and defrosting - leaking all over the floor.  I called the front desk to have someone come and take care of the wet floor and leaking refrigerator and was told by the front desk clerk, "that is not my job!".  After I said "excuse me?", she was extremely rude and said that she was not a housekeeper and maintenance person - none were available and I'd have to clean up myself and pull the refrigerator out and plug back in to prevent it from leaking more.  I asked why a guest was expected to clean up after another guest - she hung up on me.  We spoke to the manager the next morning and he said they were understaffed!  We cancelled our 2nd night at this hotel and moved up the road to a nicer hotel that appreciated and deserved our business!  I highly recommend avoiding this hotel.....other rooms in our extended party were dirty and the clientelle walking around seemed questionable - lots of "activity" in the back parking lot.  For a GREAT experience at less money, use the Sleep Inn off 120th Street - great value and service!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>The creed posted in their office reads "Treat Each Guest as You Would Like to be Treated"....they DO NOT live up to this motto!  We checked in after paying for two Queen beds and were told "there were not Queens available - Housekeeping was gone for the night" and we were given doubles...not what we paid an extra $22 for!  Then when we arrived in our room it smelled horrible and the refrigerator door was open and defrosting - leaking all over the floor.  I called the front desk to have someone come and take care of the wet floor and leaking refrigerator and was told by the front desk clerk, "that is not my job!".  After I said "excuse me?", she was extremely rude and said that she was not a housekeeper and maintenance person - none were available and I'd have to clean up myself and pull the refrigerator out and plug back in to prevent it from leaking more.  I asked why a guest was expected to clean up after another guest - she hung up on me.  
+We spoke to the manager the next morning and he said they were understaffed!  We cancelled our 2nd night at this hotel and moved up the road to a nicer hotel that appreciated and deserved our business!  
+I highly recommend avoiding this hotel.....other rooms in our extended party were dirty and the clientelle walking around seemed questionable - lots...The creed posted in their office reads "Treat Each Guest as You Would Like to be Treated"....they DO NOT live up to this motto!  We checked in after paying for two Queen beds and were told "there were not Queens available - Housekeeping was gone for the night" and we were given doubles...not what we paid an extra $22 for!  Then when we arrived in our room it smelled horrible and the refrigerator door was open and defrosting - leaking all over the floor.  I called the front desk to have someone come and take care of the wet floor and leaking refrigerator and was told by the front desk clerk, "that is not my job!".  After I said "excuse me?", she was extremely rude and said that she was not a housekeeper and maintenance person - none were available and I'd have to clean up myself and pull the refrigerator out and plug back in to prevent it from leaking more.  I asked why a guest was expected to clean up after another guest - she hung up on me.  We spoke to the manager the next morning and he said they were understaffed!  We cancelled our 2nd night at this hotel and moved up the road to a nicer hotel that appreciated and deserved our business!  I highly recommend avoiding this hotel.....other rooms in our extended party were dirty and the clientelle walking around seemed questionable - lots of "activity" in the back parking lot.  For a GREAT experience at less money, use the Sleep Inn off 120th Street - great value and service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r34567246-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>34567246</t>
+  </si>
+  <si>
+    <t>07/12/2009</t>
+  </si>
+  <si>
+    <t>Unclean, poor service, very disappointing!</t>
+  </si>
+  <si>
+    <t>16 of us checked into 5 rooms in this hotel. 2 rooms were dirty--a shower with footprints in it, no toilet paper and a room unvacuumed. Also 2 rooms that were booked for queen beds were given doubles. When asked to make this right the front desk clerk was very rude, and said there was no housekeeping there! In the morning a very noisy garbage truck came by before 6 a.m. We had intended on staying there another night but cancelled our reservation and went to a very nice Sleep Inn just down the road!</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1432,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1464,2481 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>104</v>
+      </c>
+      <c r="X11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>104</v>
+      </c>
+      <c r="X12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>186</v>
+      </c>
+      <c r="X19" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>195</v>
+      </c>
+      <c r="X20" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>212</v>
+      </c>
+      <c r="O22" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" t="s">
+        <v>218</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>219</v>
+      </c>
+      <c r="O23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>220</v>
+      </c>
+      <c r="X23" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s">
+        <v>227</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>228</v>
+      </c>
+      <c r="X24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>236</v>
+      </c>
+      <c r="O25" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>237</v>
+      </c>
+      <c r="X25" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J26" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>245</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>246</v>
+      </c>
+      <c r="X26" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>250</v>
+      </c>
+      <c r="J27" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" t="s">
+        <v>253</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>245</v>
+      </c>
+      <c r="O27" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>254</v>
+      </c>
+      <c r="X27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28" t="s">
+        <v>259</v>
+      </c>
+      <c r="K28" t="s">
+        <v>260</v>
+      </c>
+      <c r="L28" t="s">
+        <v>261</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>262</v>
+      </c>
+      <c r="X28" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" t="s">
+        <v>269</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>270</v>
+      </c>
+      <c r="X29" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>274</v>
+      </c>
+      <c r="J30" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" t="s">
+        <v>277</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>278</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>279</v>
+      </c>
+      <c r="X30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>283</v>
+      </c>
+      <c r="J31" t="s">
+        <v>284</v>
+      </c>
+      <c r="K31" t="s">
+        <v>285</v>
+      </c>
+      <c r="L31" t="s">
+        <v>286</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>287</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>288</v>
+      </c>
+      <c r="X31" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>292</v>
+      </c>
+      <c r="J32" t="s">
+        <v>293</v>
+      </c>
+      <c r="K32" t="s">
+        <v>294</v>
+      </c>
+      <c r="L32" t="s">
+        <v>295</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>296</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>299</v>
+      </c>
+      <c r="J33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K33" t="s">
+        <v>301</v>
+      </c>
+      <c r="L33" t="s">
+        <v>302</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>303</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>306</v>
+      </c>
+      <c r="J34" t="s">
+        <v>307</v>
+      </c>
+      <c r="K34" t="s">
+        <v>308</v>
+      </c>
+      <c r="L34" t="s">
+        <v>309</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>310</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>312</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>313</v>
+      </c>
+      <c r="J35" t="s">
+        <v>314</v>
+      </c>
+      <c r="K35" t="s">
+        <v>315</v>
+      </c>
+      <c r="L35" t="s">
+        <v>316</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>317</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>319</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>320</v>
+      </c>
+      <c r="J36" t="s">
+        <v>321</v>
+      </c>
+      <c r="K36" t="s">
+        <v>322</v>
+      </c>
+      <c r="L36" t="s">
+        <v>323</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>324</v>
+      </c>
+      <c r="O36" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>327</v>
+      </c>
+      <c r="J37" t="s">
+        <v>328</v>
+      </c>
+      <c r="K37" t="s">
+        <v>329</v>
+      </c>
+      <c r="L37" t="s">
+        <v>330</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>324</v>
+      </c>
+      <c r="O37" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_48.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_48.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,111 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r610549691-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33668</t>
+  </si>
+  <si>
+    <t>85294</t>
+  </si>
+  <si>
+    <t>610549691</t>
+  </si>
+  <si>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>Found a big bag of garbage stiffed in a cabinet when we checked in, Dirty towels and the floor didn't look like it had been slept.   Alot of people hanging around late at night, which made it very hard to sleep because of the noise.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r608670765-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>608670765</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>HORRIBLY DIRTY</t>
+  </si>
+  <si>
+    <t>This place was absolutely gross. Pubes in the shower, sticky stuff all over the floor. No garbage can, no wash cloths, no soap, no toilet paper.Clientele is a bit rough, bring your gun for protection!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r567939259-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>567939259</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Excellent place to stay</t>
+  </si>
+  <si>
+    <t>I have been here for 6 days so far and planning on extending my stay for a few months here. They provide 5star treatment for budget prices. Keep up the great work. And I'm looking forward to having a continued excellent stayMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Logan P, Guest Relations Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>I have been here for 6 days so far and planning on extending my stay for a few months here. They provide 5star treatment for budget prices. Keep up the great work. And I'm looking forward to having a continued excellent stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r566730745-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>566730745</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Not Bad</t>
+  </si>
+  <si>
+    <t>I enjoyed it clean rooms flat screens on wall, restaurants near by, no complaints. It was in a decent area close to highway, Ii wasn't ridiculously expensive booking with tripadvisor helped with that.MoreShow less</t>
+  </si>
+  <si>
+    <t>Logan P, Guest Relations Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>I enjoyed it clean rooms flat screens on wall, restaurants near by, no complaints. It was in a decent area close to highway, Ii wasn't ridiculously expensive booking with tripadvisor helped with that.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r545546693-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
-    <t>33668</t>
-  </si>
-  <si>
-    <t>85294</t>
-  </si>
-  <si>
     <t>545546693</t>
   </si>
   <si>
@@ -225,12 +318,54 @@
     <t>Awful. Pay ten dollars more and stay somewhere else. Nothing good to say about this dirty hole. Guests use garbage bags for their luggage. Housekeeping will only change sheets or clean the rooms if you stay seven days. Mostly just a truck stop for semi-truck drivers crash.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Awful. Pay ten dollars more and stay somewhere else. Nothing good to say about this dirty hole. Guests use garbage bags for their luggage. Housekeeping will only change sheets or clean the rooms if you stay seven days. Mostly just a truck stop for semi-truck drivers crash.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r461037545-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>461037545</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>***WARNING*****</t>
+  </si>
+  <si>
+    <t>KEEP DRIVING!!!!!. Worst stay ever. staff rude and threatening. Don't expect a clean room. Make sure you video tape your entry as the staff will place blame on their lack of cleaning or maintenance. Sleep on the side of the road, it's safer!!!!</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r387977590-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>387977590</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Last leg of a long trip that I wish I booked somewhere else</t>
+  </si>
+  <si>
+    <t>My fiancé and I drove from Alabama to Colorado with this hotel being the last place we stayed before moving into our apartment. This place made me wish we just went straight into the apartment even without a bed. The only thing that was "cleaned" was the sheets on the bed. Everything else look like the person who stayed there last just left. Dirty kitchen, filthy bathroom, and gross carpet which obviously hasn't been thoroughly cleaned in a long time. The place was crazy busy during the two days we were there, so I'm wondering if the staff is just severely undermanned. That can be the only explanation for the state of the room. Probably worst place I've stayed, and I've stayed at quite a few quaint hostels.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>My fiancé and I drove from Alabama to Colorado with this hotel being the last place we stayed before moving into our apartment. This place made me wish we just went straight into the apartment even without a bed. The only thing that was "cleaned" was the sheets on the bed. Everything else look like the person who stayed there last just left. Dirty kitchen, filthy bathroom, and gross carpet which obviously hasn't been thoroughly cleaned in a long time. The place was crazy busy during the two days we were there, so I'm wondering if the staff is just severely undermanned. That can be the only explanation for the state of the room. Probably worst place I've stayed, and I've stayed at quite a few quaint hostels.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r380868043-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -297,9 +432,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded October 22, 2015</t>
   </si>
   <si>
@@ -309,6 +441,60 @@
     <t>We have stayed at this hotel in the past and we were so surprised at how it has gone downhill.  It is a studio room with full kitchen.  You have to ask the front desk for any utensils, pots, dishes, etc.  because there is nothing in he room because the people steal them.  It has not been remodeled in years.  The clientele is very strange.  There was a family, mother, father and two children in the room next to us.  They took the kids to school in the morning yelling for them to get ready at 7:00.  The parents fought because she was always going out and getting high.  Crazy.  I saw other reviewers who said negative things about the hotel.  I should have listened to them.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r307355206-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>307355206</t>
+  </si>
+  <si>
+    <t>09/05/2015</t>
+  </si>
+  <si>
+    <t>Incompetent Management</t>
+  </si>
+  <si>
+    <t>This is without a doubt the dirtiest hotel and hotel room that I have ever checked into. The carpet has black stains, if you walk around without shoes the bottom of your feet turn black. The previous tenants clothes, trash and food were left in the dresser drawers and under the bed. Previous tenants food items were left in the kitchen cabinets. Used Q-tips, cotton swaps and a tampon were left in the bathroom.  The a/c filters are so caked with dust and hair, the a/c barely worked until I just removed them and set them aside. The housekeeper "cleans" rooms with a cigarette hanging out of her mouth. The staff is very unresponsive to guests issues (i.e. the water was turned off and they had no idea as to why or when it would be back on). I made reservations a week ahead and explained that my dog has arthritis and specifically asked for a 1st floor room, the person that took my reservations assured me that this would not be a problem. When I got here they gave me a second floor room and told me this is all I have "take it or leave it". Very rude. The facility itself is just as un-kept as my room. There is trash in the stairwells, exterior lights out all over the place, trash all in the landscaping. The guest laundry is filthy. I am very disappointed with the operations...This is without a doubt the dirtiest hotel and hotel room that I have ever checked into. The carpet has black stains, if you walk around without shoes the bottom of your feet turn black. The previous tenants clothes, trash and food were left in the dresser drawers and under the bed. Previous tenants food items were left in the kitchen cabinets. Used Q-tips, cotton swaps and a tampon were left in the bathroom.  The a/c filters are so caked with dust and hair, the a/c barely worked until I just removed them and set them aside. The housekeeper "cleans" rooms with a cigarette hanging out of her mouth. The staff is very unresponsive to guests issues (i.e. the water was turned off and they had no idea as to why or when it would be back on). I made reservations a week ahead and explained that my dog has arthritis and specifically asked for a 1st floor room, the person that took my reservations assured me that this would not be a problem. When I got here they gave me a second floor room and told me this is all I have "take it or leave it". Very rude. The facility itself is just as un-kept as my room. There is trash in the stairwells, exterior lights out all over the place, trash all in the landscaping. The guest laundry is filthy. I am very disappointed with the operations of this hotel and feel that I should be refunded for part of my stay!! It amazes me that this place is in business. Every review Tripadvisor has on this motel has the same issues and even though the manager apologizes the issues continue. The motel is a direct reflection of the General Manager's skills. The General Manager here is obviously incompetent, and has no idea how to run a successful hotel. My advise to the owners is to find competent management. The General Manager here is only out for a paycheck not guest services.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded September 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2015</t>
+  </si>
+  <si>
+    <t>This is without a doubt the dirtiest hotel and hotel room that I have ever checked into. The carpet has black stains, if you walk around without shoes the bottom of your feet turn black. The previous tenants clothes, trash and food were left in the dresser drawers and under the bed. Previous tenants food items were left in the kitchen cabinets. Used Q-tips, cotton swaps and a tampon were left in the bathroom.  The a/c filters are so caked with dust and hair, the a/c barely worked until I just removed them and set them aside. The housekeeper "cleans" rooms with a cigarette hanging out of her mouth. The staff is very unresponsive to guests issues (i.e. the water was turned off and they had no idea as to why or when it would be back on). I made reservations a week ahead and explained that my dog has arthritis and specifically asked for a 1st floor room, the person that took my reservations assured me that this would not be a problem. When I got here they gave me a second floor room and told me this is all I have "take it or leave it". Very rude. The facility itself is just as un-kept as my room. There is trash in the stairwells, exterior lights out all over the place, trash all in the landscaping. The guest laundry is filthy. I am very disappointed with the operations...This is without a doubt the dirtiest hotel and hotel room that I have ever checked into. The carpet has black stains, if you walk around without shoes the bottom of your feet turn black. The previous tenants clothes, trash and food were left in the dresser drawers and under the bed. Previous tenants food items were left in the kitchen cabinets. Used Q-tips, cotton swaps and a tampon were left in the bathroom.  The a/c filters are so caked with dust and hair, the a/c barely worked until I just removed them and set them aside. The housekeeper "cleans" rooms with a cigarette hanging out of her mouth. The staff is very unresponsive to guests issues (i.e. the water was turned off and they had no idea as to why or when it would be back on). I made reservations a week ahead and explained that my dog has arthritis and specifically asked for a 1st floor room, the person that took my reservations assured me that this would not be a problem. When I got here they gave me a second floor room and told me this is all I have "take it or leave it". Very rude. The facility itself is just as un-kept as my room. There is trash in the stairwells, exterior lights out all over the place, trash all in the landscaping. The guest laundry is filthy. I am very disappointed with the operations of this hotel and feel that I should be refunded for part of my stay!! It amazes me that this place is in business. Every review Tripadvisor has on this motel has the same issues and even though the manager apologizes the issues continue. The motel is a direct reflection of the General Manager's skills. The General Manager here is obviously incompetent, and has no idea how to run a successful hotel. My advise to the owners is to find competent management. The General Manager here is only out for a paycheck not guest services.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r303541828-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>303541828</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Good Staff &amp; Good Price</t>
+  </si>
+  <si>
+    <t>The staff was great overall.  They helped with directions to were I needed.  The staff was friendly and responsive to my needs.  The price was good for the amenities.   TV upgrades  needed was tho only down fall.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2015</t>
+  </si>
+  <si>
+    <t>The staff was great overall.  They helped with directions to were I needed.  The staff was friendly and responsive to my needs.  The price was good for the amenities.   TV upgrades  needed was tho only down fall.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r287304453-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -327,9 +513,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded July 15, 2015</t>
   </si>
   <si>
@@ -354,9 +537,6 @@
     <t>I did not do normal research on this hotel as it was included in a prepaid Orbitz package where I requested a "double, non-smoking".  Got a smoking room with small double (didn't know doubles were that small).  The TV was blurry so we couldn't even distract ourselves.  No maid service.SMALL:  I don't think some of the staff could fit in the shower or on the toilet.  The bed made noise with every movement like it was crushing rocks. STINKY: I went to the store, bought rug freshener, air freshener, dehumidifier; still all of our clothes and luggage smelled like smoke even the CPAP mask.  Just got home and still everything smells like cigarette smoke.  When I was told that they only had a smoking room available I asked "cigarettes or marijuana" (it's CO after all).  The person behind me answered BOTH!.  Even the elevator was stinky.SCARY:  Guests that I am not used to seeing at other hotels.  Another guest whispered that there were drugs going down. Police cars one day, don't know what that was about.Bruce was a helpful employee!  Broke my heart to see little kids riding tricycles on the 3rd floor hallway.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>I did not do normal research on this hotel as it was included in a prepaid Orbitz package where I requested a "double, non-smoking".  Got a smoking room with small double (didn't know doubles were that small).  The TV was blurry so we couldn't even distract ourselves.  No maid service.SMALL:  I don't think some of the staff could fit in the shower or on the toilet.  The bed made noise with every movement like it was crushing rocks. STINKY: I went to the store, bought rug freshener, air freshener, dehumidifier; still all of our clothes and luggage smelled like smoke even the CPAP mask.  Just got home and still everything smells like cigarette smoke.  When I was told that they only had a smoking room available I asked "cigarettes or marijuana" (it's CO after all).  The person behind me answered BOTH!.  Even the elevator was stinky.SCARY:  Guests that I am not used to seeing at other hotels.  Another guest whispered that there were drugs going down. Police cars one day, don't know what that was about.Bruce was a helpful employee!  Broke my heart to see little kids riding tricycles on the 3rd floor hallway.More</t>
   </si>
   <si>
@@ -378,6 +558,42 @@
     <t>First of all you book the room ask for a king bed .you get there to check in and are told it's first come first serve! !! Bad idea then you are told you have to pay for the room up front ?? Realy .also the kitchen wares are extra . Then you find out that the room you get has not realy been cleaned by any means. The refrigerator is broken with towels stuffed in it to catch the water . The floor is nasty makes you want to ware your shoes all the time . Staff is not the best !!!!!DON'T STAY HERE IF YOU HAVE TO !!!!! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r284334404-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>284334404</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Shame on hotel owners for poor condition of hotel, BUT kudos to staff for great customer service skills in spite of it!</t>
+  </si>
+  <si>
+    <t>The staff was amazing and had customer service skills... and was very cordial.  The property is in a great location, but shame on the owners for not providing this great group of employees a better maintained hotel - something they could be proud of, instead of making excuses for.  Screens are ripped, door latches are falling off. Carpets are filthy with huge stains, bed sheets were stained, kitchen cold water faucet did not work, the walkways are disgusting (dirty and littered with cigarette butts) and need a good pressure washing.  We actually saw a hotel guest walk the parking lot picking up cigarette butts to smoke them :( The lobby has a sign advising guests to call police for their own protection if an occurrence happens --this made us a bit uneasy.  Lobby blinds were broken and the entire lobby was at a bare minimum. There is nothing in this hotel that the employees can be proud of except for what they bring to it - their superior customer service!! There were questionable guests loitering around at all times and the police were at this property several times both days that we stayed here. I could go on and on but i think i have made my point.  I feel bad for the lovely lady manager on site, who also is wonderful!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was amazing and had customer service skills... and was very cordial.  The property is in a great location, but shame on the owners for not providing this great group of employees a better maintained hotel - something they could be proud of, instead of making excuses for.  Screens are ripped, door latches are falling off. Carpets are filthy with huge stains, bed sheets were stained, kitchen cold water faucet did not work, the walkways are disgusting (dirty and littered with cigarette butts) and need a good pressure washing.  We actually saw a hotel guest walk the parking lot picking up cigarette butts to smoke them :( The lobby has a sign advising guests to call police for their own protection if an occurrence happens --this made us a bit uneasy.  Lobby blinds were broken and the entire lobby was at a bare minimum. There is nothing in this hotel that the employees can be proud of except for what they bring to it - their superior customer service!! There were questionable guests loitering around at all times and the police were at this property several times both days that we stayed here. I could go on and on but i think i have made my point.  I feel bad for the lovely lady manager on site, who also is wonderful!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r284326606-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>284326606</t>
+  </si>
+  <si>
+    <t>I would rate it lower if I could.</t>
+  </si>
+  <si>
+    <t>I was traveling to Denver for some medical testing and was sent here for a value room.  $90.00 bucks!  This place shouldn't have cost over 49.99.  For $35.00 more get a Holiday Inn express.  This is the dirtiest, most broke down hotel I have ever seen.  Do not stay here.  This place isn't even safe to stay in.  I hurt my foot on the broken down floor (see pic).  The internet password only would let you stay logged in for a minute at a time.  I got tired of re entering the password information and just gave up.  The hallways and elevator are filthy, and the entire place reeks of smoke.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I was traveling to Denver for some medical testing and was sent here for a value room.  $90.00 bucks!  This place shouldn't have cost over 49.99.  For $35.00 more get a Holiday Inn express.  This is the dirtiest, most broke down hotel I have ever seen.  Do not stay here.  This place isn't even safe to stay in.  I hurt my foot on the broken down floor (see pic).  The internet password only would let you stay logged in for a minute at a time.  I got tired of re entering the password information and just gave up.  The hallways and elevator are filthy, and the entire place reeks of smoke.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r283480617-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -393,9 +609,6 @@
     <t>This had to be the nastiest place I've ever seen. Once you get past the tobacco spit on the walls and stairs, the Walmart shopping carts, and the dirty stinky clothes hanging on the hand rails you make it to the room. The room smelled like hundreds of cigarettes had been smoked in it and it had never been aired out. Then you walk around the room to see some nasty red substance on the walls. Not sure if blood or not. The counters look like they have never been wiped off. The shower  had so much dirt in the bottom you could plant grass. This was just to list a few. When I spoke with the front desk clerk she was very nice. She did not seem to surprised about me checking out around 5 minutes of checking in. After leaving I have read the numerous numerous numerous complaints and empty responses about fixing the same issues I witnessed. Seriously I would recommend you sleep under a bridge before staying in this rat hole. Here are a few of the pictures I took.MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>This had to be the nastiest place I've ever seen. Once you get past the tobacco spit on the walls and stairs, the Walmart shopping carts, and the dirty stinky clothes hanging on the hand rails you make it to the room. The room smelled like hundreds of cigarettes had been smoked in it and it had never been aired out. Then you walk around the room to see some nasty red substance on the walls. Not sure if blood or not. The counters look like they have never been wiped off. The shower  had so much dirt in the bottom you could plant grass. This was just to list a few. When I spoke with the front desk clerk she was very nice. She did not seem to surprised about me checking out around 5 minutes of checking in. After leaving I have read the numerous numerous numerous complaints and empty responses about fixing the same issues I witnessed. Seriously I would recommend you sleep under a bridge before staying in this rat hole. Here are a few of the pictures I took.More</t>
   </si>
   <si>
@@ -447,6 +660,51 @@
     <t>Extended stay motels position themselves as home away from home...not true here. While relocating after employment, were  annoyed when after 2 weeks, we still couldn't get a washing machine (2 out of 4 washers have been "out of service please be patient") since March 27 when we checked in.  My husband tried to microwave cup of coffee last night and microwave sparked all over kitchen. Did not tell me; when I tried micro it sparked once again (as crossland knew, the glass plate in microwave does not rotate) so they shouldn't be surprised that this happened). When I called 2 times to tell them my micro was on fire (2 times)to front desk, 3 women who did not identify themselves looked around for15 seconds and said maintenance would be here tomorrow.  I said "is that really your solution.?!!!" This isn't about money,although I'm pretty sure it is.  I paid for service as advertised. Shame on the business owner.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r265371455-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>265371455</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Can't stop itching!!</t>
+  </si>
+  <si>
+    <t>Arrived at hotel at 10 pm.  They had no record of my reservation.  Once they found it, it took 45 minutes to check in. Was scheduled to get at queen bed, but only got a full. Immediately entering the room the grossness and smell was horrible.  Finally fell asleep to wake up to bugs crawling all over me!!  Went to check out at front desk, 2:30 in the morning, and was offered another room.  I decided I would rather sleep in my truck.  As I am loading up to leave, I am creepily watched by people roaming the walkways.  Never stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived at hotel at 10 pm.  They had no record of my reservation.  Once they found it, it took 45 minutes to check in. Was scheduled to get at queen bed, but only got a full. Immediately entering the room the grossness and smell was horrible.  Finally fell asleep to wake up to bugs crawling all over me!!  Went to check out at front desk, 2:30 in the morning, and was offered another room.  I decided I would rather sleep in my truck.  As I am loading up to leave, I am creepily watched by people roaming the walkways.  Never stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r230390147-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>230390147</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Disgusting!</t>
+  </si>
+  <si>
+    <t>What wasn't  wrong with this dump!  Filthy dirty, bad smell, people selling drugs in the parking lot, people smoking drugs in the rooms. Yes we saw them as they left the door open.  Cat woman living there in another room.  Laundry hanging all over the banisters, graffiti all over the walls, etc.  We refused to even stay!  I wouldn't refer my worst enemy here!  Wish they had a worse than terrible rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded September 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2014</t>
+  </si>
+  <si>
+    <t>What wasn't  wrong with this dump!  Filthy dirty, bad smell, people selling drugs in the parking lot, people smoking drugs in the rooms. Yes we saw them as they left the door open.  Cat woman living there in another room.  Laundry hanging all over the banisters, graffiti all over the walls, etc.  We refused to even stay!  I wouldn't refer my worst enemy here!  Wish they had a worse than terrible rating.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r229927564-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -462,15 +720,6 @@
     <t>Really clean, comfortable beds, nice and friendly front staff, what more can you ask for?Really price worthy. Kitchen utensils are handed out by reception when asked for. They are really clean also. Recommend this for budget travellers.MoreShow less</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded September 25, 2014</t>
-  </si>
-  <si>
-    <t>Responded September 25, 2014</t>
-  </si>
-  <si>
     <t>Really clean, comfortable beds, nice and friendly front staff, what more can you ask for?Really price worthy. Kitchen utensils are handed out by reception when asked for. They are really clean also. Recommend this for budget travellers.More</t>
   </si>
   <si>
@@ -514,6 +763,57 @@
   </si>
   <si>
     <t>Staying at Crossing Economy Studios was the worst experience that I have ever had. After 9 hours of driving we went to check in to the hotel, the employee, informed us the one of the two rooms we had reserved 2 months prior was unavailable. She tried to pull the, "oh, there's nothing I can do routine ,"  we werent having it. She then informed us that she would have to call the manager, and ask what she should do. They shouldn't have people there by themselves that cant fix incidences like this.  She comes back after a while and tells us, she has to wait for the manager to call back. So, we called family, already waiting at the restaurant. To tell them we were waiting for the manager to call back, and we would have to wait to get the issue resolved before meeting them.  Our room situation got figured out. Now an hour late we finally get the keys and just go to meet up with them. No time to shower or change.  We go up to the room, The light flickered, like out of a creepy movie before coming on, the blankets and pillows had hair all on them, there was paint stuck to the sheets,  there looked like there was a blood stain on one of my pillows, there was only like 10 channels. I would think for as much as I paid for this...Staying at Crossing Economy Studios was the worst experience that I have ever had. After 9 hours of driving we went to check in to the hotel, the employee, informed us the one of the two rooms we had reserved 2 months prior was unavailable. She tried to pull the, "oh, there's nothing I can do routine ,"  we werent having it. She then informed us that she would have to call the manager, and ask what she should do. They shouldn't have people there by themselves that cant fix incidences like this.  She comes back after a while and tells us, she has to wait for the manager to call back. So, we called family, already waiting at the restaurant. To tell them we were waiting for the manager to call back, and we would have to wait to get the issue resolved before meeting them.  Our room situation got figured out. Now an hour late we finally get the keys and just go to meet up with them. No time to shower or change.  We go up to the room, The light flickered, like out of a creepy movie before coming on, the blankets and pillows had hair all on them, there was paint stuck to the sheets,  there looked like there was a blood stain on one of my pillows, there was only like 10 channels. I would think for as much as I paid for this room this hotel would have more than 10 channels. Then I go to take a shower, on the bathroom door there was curly black hair stuck to it, there was also stains all over the door as if it has never been washed. The shower floor was black and once again had hair all over the place, so I was unable to shower because I was so disgusted from how dirty it was. Also on the toilet was a long black hair wrapped around the toilet seat. That's so unsanitary.  I rather have slept in my car with it 30 degrees outside and snowing then stay in the room I recieved. The wifi was a joke.Ur goal is to satisfy your customers, it really doesn't show. Save yourself the hassel and the unsettling sense of filth and go elsewhere!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r215209597-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>215209597</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Where do I begin? First off as I am checking in I am told I have to pay a 100$ deposit fee, even though they already have my credit card in the system? Whatever, I pay it. We then start walking to our room when we notice a lot of rooms are missing their room numbers. We pass multiple rooms with old busted up doors..and dirty unwelcoming curtains. We find our room and walk in. The looks of it are more of a 30$ a night motel rather than the 80$ a night we paid for. The bed was made but quickly and unprofessional like someone laid in it after they made it. The kitchen was just small and ugly. The table and chair looked like it was pulled out of the garbage. And the tv as well. Small, and from the early 90's. I went to use the bathroom as my boyfriend inspected the bed. He pulled back the covers only to reveal it looked as if someone picked only the longest of their pubesz and laid about 12 hairs in different parts of the bed. That was then we decided to leave and get our money back. The staff was understanding. After I got my refund I'm still waiting for she asked if we uncovered the bed or not. I'm assuming if we didn't she would have left it and would have just rented the room to another...Where do I begin? First off as I am checking in I am told I have to pay a 100$ deposit fee, even though they already have my credit card in the system? Whatever, I pay it. We then start walking to our room when we notice a lot of rooms are missing their room numbers. We pass multiple rooms with old busted up doors..and dirty unwelcoming curtains. We find our room and walk in. The looks of it are more of a 30$ a night motel rather than the 80$ a night we paid for. The bed was made but quickly and unprofessional like someone laid in it after they made it. The kitchen was just small and ugly. The table and chair looked like it was pulled out of the garbage. And the tv as well. Small, and from the early 90's. I went to use the bathroom as my boyfriend inspected the bed. He pulled back the covers only to reveal it looked as if someone picked only the longest of their pubesz and laid about 12 hairs in different parts of the bed. That was then we decided to leave and get our money back. The staff was understanding. After I got my refund I'm still waiting for she asked if we uncovered the bed or not. I'm assuming if we didn't she would have left it and would have just rented the room to another unfortunate guest. We ended up just spending an extra 20$ for a 4 star hotel down the street. Please folks, for your health safety do not stay here. Spend the extra cash for something nicer and worth while. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Where do I begin? First off as I am checking in I am told I have to pay a 100$ deposit fee, even though they already have my credit card in the system? Whatever, I pay it. We then start walking to our room when we notice a lot of rooms are missing their room numbers. We pass multiple rooms with old busted up doors..and dirty unwelcoming curtains. We find our room and walk in. The looks of it are more of a 30$ a night motel rather than the 80$ a night we paid for. The bed was made but quickly and unprofessional like someone laid in it after they made it. The kitchen was just small and ugly. The table and chair looked like it was pulled out of the garbage. And the tv as well. Small, and from the early 90's. I went to use the bathroom as my boyfriend inspected the bed. He pulled back the covers only to reveal it looked as if someone picked only the longest of their pubesz and laid about 12 hairs in different parts of the bed. That was then we decided to leave and get our money back. The staff was understanding. After I got my refund I'm still waiting for she asked if we uncovered the bed or not. I'm assuming if we didn't she would have left it and would have just rented the room to another...Where do I begin? First off as I am checking in I am told I have to pay a 100$ deposit fee, even though they already have my credit card in the system? Whatever, I pay it. We then start walking to our room when we notice a lot of rooms are missing their room numbers. We pass multiple rooms with old busted up doors..and dirty unwelcoming curtains. We find our room and walk in. The looks of it are more of a 30$ a night motel rather than the 80$ a night we paid for. The bed was made but quickly and unprofessional like someone laid in it after they made it. The kitchen was just small and ugly. The table and chair looked like it was pulled out of the garbage. And the tv as well. Small, and from the early 90's. I went to use the bathroom as my boyfriend inspected the bed. He pulled back the covers only to reveal it looked as if someone picked only the longest of their pubesz and laid about 12 hairs in different parts of the bed. That was then we decided to leave and get our money back. The staff was understanding. After I got my refund I'm still waiting for she asked if we uncovered the bed or not. I'm assuming if we didn't she would have left it and would have just rented the room to another unfortunate guest. We ended up just spending an extra 20$ for a 4 star hotel down the street. Please folks, for your health safety do not stay here. Spend the extra cash for something nicer and worth while. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r209219723-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>209219723</t>
+  </si>
+  <si>
+    <t>06/06/2014</t>
+  </si>
+  <si>
+    <t>HORRIBLE!</t>
+  </si>
+  <si>
+    <t>Do not stay here, especially for a night or two - way over priced for that!It seems to be a halfway house of sorts and the entire place is filthy.  The police showed up three times during our overnight stay.I had written a review with over 20 photos but it didn't get approved.  Many of the photos were shocking - I guess that's why.The only thing this place had going for it was a friendly desk clerk when we checked in.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Do not stay here, especially for a night or two - way over priced for that!It seems to be a halfway house of sorts and the entire place is filthy.  The police showed up three times during our overnight stay.I had written a review with over 20 photos but it didn't get approved.  Many of the photos were shocking - I guess that's why.The only thing this place had going for it was a friendly desk clerk when we checked in.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r204493052-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
@@ -591,6 +891,55 @@
     <t>Drove into the parking lot on the first night of a seven night stay.  Immediately saw a group of hispanic men standing around drinking beer at the tailgate of their pickup truck.  Looked around and it seemed as if every vehicle was from a construction company or of someone using the place as a flophouse.  The building itself seemed to be in a not-so-nice part of town right next to train tracks and a large furniture factory.  The office was tiny, dirty, and had two young girls who didn't know the procedure very well.  They will also charge you a $100 deposit that no one told me about.  Sidewalks, stairs, outside walkways were all covered in cigarette butts and horribly dirty.  The room was tiny and not cleaned well.  Wireless did not work at all even after being given the password and name several times.  I felt very uneasy about leaving anything of value in my car or in the room.  I didn't even stay there the first night, preferring to stay with a friend an hour away.  I couldn't receive a refund for that night as it was after the 24hr cancellation policy.  I checked out for the remaining six nights without ever staying there and will never ever go back.  The weekly rate of $41/night attracted me at first but is most definitely not worth the conditions of the hotel.  Still waiting on the refund for the remainder...Drove into the parking lot on the first night of a seven night stay.  Immediately saw a group of hispanic men standing around drinking beer at the tailgate of their pickup truck.  Looked around and it seemed as if every vehicle was from a construction company or of someone using the place as a flophouse.  The building itself seemed to be in a not-so-nice part of town right next to train tracks and a large furniture factory.  The office was tiny, dirty, and had two young girls who didn't know the procedure very well.  They will also charge you a $100 deposit that no one told me about.  Sidewalks, stairs, outside walkways were all covered in cigarette butts and horribly dirty.  The room was tiny and not cleaned well.  Wireless did not work at all even after being given the password and name several times.  I felt very uneasy about leaving anything of value in my car or in the room.  I didn't even stay there the first night, preferring to stay with a friend an hour away.  I couldn't receive a refund for that night as it was after the 24hr cancellation policy.  I checked out for the remaining six nights without ever staying there and will never ever go back.  The weekly rate of $41/night attracted me at first but is most definitely not worth the conditions of the hotel.  Still waiting on the refund for the remainder of my stay 4 days later.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r195846563-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>195846563</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>Horrible, horrible, horrible!</t>
+  </si>
+  <si>
+    <t>I had called several times to check on my reservation throughout a couple weeks prior to arrival and not 1 time was it mentioned about a deposit, so because I had 2 rooms there was a 200 deposit that I was unaware of. Reyna was the hotel clerk on duty, it's been quite some time since I've experienced someone that rude, after the 45 minutes it took her to check us in we find out were on the 3rd floor (with no elevator near the room) which wouldn't have been a problem if my diabled mother hadn't been with us. When we got into the first room there was no tv when I called the front desk the manager (Shalimar) she said it was on a work order and it would get there when the maintenance man gets around to it. In this room as well, one of the beds, the sheets and pillowcases were covered in dog hair (that's what we'd like to believe anyway). In the other room, the room was filthy, walls looked like they haven't been wiped down in months, the bathroom had yellow steam bubbles the size of half dollars. Now for the best part, the bed that I had slept in had urine stains and a blood spot from someome starting their period as the location on the bed made it very clear. When I again spoke to the manager (Shalimar) all that was...I had called several times to check on my reservation throughout a couple weeks prior to arrival and not 1 time was it mentioned about a deposit, so because I had 2 rooms there was a 200 deposit that I was unaware of. Reyna was the hotel clerk on duty, it's been quite some time since I've experienced someone that rude, after the 45 minutes it took her to check us in we find out were on the 3rd floor (with no elevator near the room) which wouldn't have been a problem if my diabled mother hadn't been with us. When we got into the first room there was no tv when I called the front desk the manager (Shalimar) she said it was on a work order and it would get there when the maintenance man gets around to it. In this room as well, one of the beds, the sheets and pillowcases were covered in dog hair (that's what we'd like to believe anyway). In the other room, the room was filthy, walls looked like they haven't been wiped down in months, the bathroom had yellow steam bubbles the size of half dollars. Now for the best part, the bed that I had slept in had urine stains and a blood spot from someome starting their period as the location on the bed made it very clear. When I again spoke to the manager (Shalimar) all that was said is I'll mention it to housekeeping.  I had to pay an additional fee for the extra beds in each room and both were absolutely gross! I wouldn't pay my worst enemy to stay here. If you're looking for a room on a budget I would recommend Best Inns and Suites. Least their beds are clean!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had called several times to check on my reservation throughout a couple weeks prior to arrival and not 1 time was it mentioned about a deposit, so because I had 2 rooms there was a 200 deposit that I was unaware of. Reyna was the hotel clerk on duty, it's been quite some time since I've experienced someone that rude, after the 45 minutes it took her to check us in we find out were on the 3rd floor (with no elevator near the room) which wouldn't have been a problem if my diabled mother hadn't been with us. When we got into the first room there was no tv when I called the front desk the manager (Shalimar) she said it was on a work order and it would get there when the maintenance man gets around to it. In this room as well, one of the beds, the sheets and pillowcases were covered in dog hair (that's what we'd like to believe anyway). In the other room, the room was filthy, walls looked like they haven't been wiped down in months, the bathroom had yellow steam bubbles the size of half dollars. Now for the best part, the bed that I had slept in had urine stains and a blood spot from someome starting their period as the location on the bed made it very clear. When I again spoke to the manager (Shalimar) all that was...I had called several times to check on my reservation throughout a couple weeks prior to arrival and not 1 time was it mentioned about a deposit, so because I had 2 rooms there was a 200 deposit that I was unaware of. Reyna was the hotel clerk on duty, it's been quite some time since I've experienced someone that rude, after the 45 minutes it took her to check us in we find out were on the 3rd floor (with no elevator near the room) which wouldn't have been a problem if my diabled mother hadn't been with us. When we got into the first room there was no tv when I called the front desk the manager (Shalimar) she said it was on a work order and it would get there when the maintenance man gets around to it. In this room as well, one of the beds, the sheets and pillowcases were covered in dog hair (that's what we'd like to believe anyway). In the other room, the room was filthy, walls looked like they haven't been wiped down in months, the bathroom had yellow steam bubbles the size of half dollars. Now for the best part, the bed that I had slept in had urine stains and a blood spot from someome starting their period as the location on the bed made it very clear. When I again spoke to the manager (Shalimar) all that was said is I'll mention it to housekeeping.  I had to pay an additional fee for the extra beds in each room and both were absolutely gross! I wouldn't pay my worst enemy to stay here. If you're looking for a room on a budget I would recommend Best Inns and Suites. Least their beds are clean!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r181020502-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>181020502</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>You Get What You Pay For</t>
+  </si>
+  <si>
+    <t>I'm not sure where to start, so I'll begin with the largest offense during this stay. Having been told by my airline that one of my travel packages may be lost, but otherwise may be delivered to my hotel, I was extremely happy to finally receive it. I was NOT happy however, that I had to stop by the office at night on my way back in from working late, to find out that it had arrived. When it had arrived, I have no idea - no phone messages, no room messages, no communication at all by the front office. When were they planning to let me know my box had arrived?
+Aside from this, my room was not only tiny for an "Extended Stay," but stank of smoke and was so dated as to seem to be straight out of the 80s - cheap, old, composite furniture and all. The bathroom, while on its face seemed clean and with relatively new laminate wood flooring, had caked dust on top of the towel rack and a filthy toilet seat that I had to wipe down myself. I left a tip for the room cleaner, but only out of personal obligation and because I know the person really needs it.
+I never mentioned any of this to management, because in my opinion, nothing would, or could have done. The problems here are seemingly deep and long-lived...not simply a one-time mistake. Think;...I'm not sure where to start, so I'll begin with the largest offense during this stay. Having been told by my airline that one of my travel packages may be lost, but otherwise may be delivered to my hotel, I was extremely happy to finally receive it. I was NOT happy however, that I had to stop by the office at night on my way back in from working late, to find out that it had arrived. When it had arrived, I have no idea - no phone messages, no room messages, no communication at all by the front office. When were they planning to let me know my box had arrived?Aside from this, my room was not only tiny for an "Extended Stay," but stank of smoke and was so dated as to seem to be straight out of the 80s - cheap, old, composite furniture and all. The bathroom, while on its face seemed clean and with relatively new laminate wood flooring, had caked dust on top of the towel rack and a filthy toilet seat that I had to wipe down myself. I left a tip for the room cleaner, but only out of personal obligation and because I know the person really needs it.I never mentioned any of this to management, because in my opinion, nothing would, or could have done. The problems here are seemingly deep and long-lived...not simply a one-time mistake. Think; major overhaul.Now, I understand that this is not only a suburban area, in which this property seems to primarily serve as full-time residence for most occupants, but quite reasonably priced. That said, it really needs to find its grounding and decide whether it wants to solely provide long-term dwellings to the transient, or be attractive to those travelers visiting, or doing business in Denver, less than 10 miles away. I've been to several Extended Stays and this property is wholly sub par for the brand. While I may personally stay somewhere like this while in need of inexpensive lodging, I would NEVER bring my wife and child here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2013</t>
+  </si>
+  <si>
+    <t>I'm not sure where to start, so I'll begin with the largest offense during this stay. Having been told by my airline that one of my travel packages may be lost, but otherwise may be delivered to my hotel, I was extremely happy to finally receive it. I was NOT happy however, that I had to stop by the office at night on my way back in from working late, to find out that it had arrived. When it had arrived, I have no idea - no phone messages, no room messages, no communication at all by the front office. When were they planning to let me know my box had arrived?
+Aside from this, my room was not only tiny for an "Extended Stay," but stank of smoke and was so dated as to seem to be straight out of the 80s - cheap, old, composite furniture and all. The bathroom, while on its face seemed clean and with relatively new laminate wood flooring, had caked dust on top of the towel rack and a filthy toilet seat that I had to wipe down myself. I left a tip for the room cleaner, but only out of personal obligation and because I know the person really needs it.
+I never mentioned any of this to management, because in my opinion, nothing would, or could have done. The problems here are seemingly deep and long-lived...not simply a one-time mistake. Think;...I'm not sure where to start, so I'll begin with the largest offense during this stay. Having been told by my airline that one of my travel packages may be lost, but otherwise may be delivered to my hotel, I was extremely happy to finally receive it. I was NOT happy however, that I had to stop by the office at night on my way back in from working late, to find out that it had arrived. When it had arrived, I have no idea - no phone messages, no room messages, no communication at all by the front office. When were they planning to let me know my box had arrived?Aside from this, my room was not only tiny for an "Extended Stay," but stank of smoke and was so dated as to seem to be straight out of the 80s - cheap, old, composite furniture and all. The bathroom, while on its face seemed clean and with relatively new laminate wood flooring, had caked dust on top of the towel rack and a filthy toilet seat that I had to wipe down myself. I left a tip for the room cleaner, but only out of personal obligation and because I know the person really needs it.I never mentioned any of this to management, because in my opinion, nothing would, or could have done. The problems here are seemingly deep and long-lived...not simply a one-time mistake. Think; major overhaul.Now, I understand that this is not only a suburban area, in which this property seems to primarily serve as full-time residence for most occupants, but quite reasonably priced. That said, it really needs to find its grounding and decide whether it wants to solely provide long-term dwellings to the transient, or be attractive to those travelers visiting, or doing business in Denver, less than 10 miles away. I've been to several Extended Stays and this property is wholly sub par for the brand. While I may personally stay somewhere like this while in need of inexpensive lodging, I would NEVER bring my wife and child here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r179996391-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -604,15 +953,6 @@
   </si>
   <si>
     <t>I stayed here with my husband as we were displaced and looking for a new home and we were very diappointed, the room was dirty upon check there was dog hair all over the place as well as dog food on the carpet and we didnt have a dog..hmm. the ceiling was bubbling, the internet connection was a joke, we tried to check out early since we found a house and were told that we couldnt check out because we were going to owe money...who does this? charge you for a room that you didnt even stay in? be very careful when you stay here. The parking lot is very unsafe, police 24/7 because of all of the break ins. we were very diappointed and should have saved ourselves the 500 dollars that we spent for the twelve days when we only stayed 9 of these days and there was never a manager available to refund us the money that we are owed. NEVER EVER WILL I STAY HERE AGAIN OR RECOMMEND THIS PROPERTY TO ANYONE-THEY WILL STEAL YOUR MONEYMoreShow less</t>
-  </si>
-  <si>
-    <t>October 2013</t>
-  </si>
-  <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded October 22, 2013</t>
-  </si>
-  <si>
-    <t>Responded October 22, 2013</t>
   </si>
   <si>
     <t>I stayed here with my husband as we were displaced and looking for a new home and we were very diappointed, the room was dirty upon check there was dog hair all over the place as well as dog food on the carpet and we didnt have a dog..hmm. the ceiling was bubbling, the internet connection was a joke, we tried to check out early since we found a house and were told that we couldnt check out because we were going to owe money...who does this? charge you for a room that you didnt even stay in? be very careful when you stay here. The parking lot is very unsafe, police 24/7 because of all of the break ins. we were very diappointed and should have saved ourselves the 500 dollars that we spent for the twelve days when we only stayed 9 of these days and there was never a manager available to refund us the money that we are owed. NEVER EVER WILL I STAY HERE AGAIN OR RECOMMEND THIS PROPERTY TO ANYONE-THEY WILL STEAL YOUR MONEYMore</t>
@@ -670,6 +1010,45 @@
 Most days would find anywhere from 2 to 5 police cars parked in the lot for various problems. At one point a substitute worker from a different hotel was working the desk and made a surprised...I and my family came here to stay for a month. At first it seemed fine and reasonably situated with walking paths nearby, but things went downhill rapidly. We first stopped to look here and had to wait till the afternoon to see a room. So we took a drive to look at the Crossland Studios by the airport. The neighborhood there looked awful, so we returned, exhausted, signed the agreement, then went into our room. This was a tiny room with 2 queen-size beds for the 4 of us. Not terrible, but the furniture is cheap, the kitchen minimal. Some of the furniture was delaminating. Wifi performance was worse than dial-up. For an extra fee you can buy what is billed as "up to 2 times faster". Twice nothing is still nothing, so we passed. With luck, you can get your email to load. Don't even hope for streaming audio or video.After a few days, a drug dealer moved in next door to us. Loud music in the middle of the night, frequent visitors (the security doors were frequently propped open). Complaints to the front desk were useless. They suggested *we* call the police. After a few days they were kicked out.Most days would find anywhere from 2 to 5 police cars parked in the lot for various problems. At one point a substitute worker from a different hotel was working the desk and made a surprised comment after seeing how much we were paying. I looked back at our agreement and realized they had charged us the daily rate rather than the weekly rate and apparently there were even lower rates, but they wouldn't change or refund the difference. That was the last straw. We didn't feel safe there to begin with, so moved to the Extended Stay Cherry Creek facility. A phone call to Crossland customer service proved useless too. Sorry we're unhappy, can't correct the billing. Too bad, so sad.Note that Crossland Studios are the lowest-end version of a series owned by the same corporation. The next step up is Extended Stay America, then Homestead. Turned out Extended Stay Cherry Creek was cheaper and much nicer (though I really wouldn't recommend any of them). The Crossland a few blocks away from there was a dump and they quoted a higher rate than the better furnished Extended Stay.Bottom line, steer clear of this place.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r167869680-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>167869680</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Where do I begin?</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed in this hotel a few months ago and loved it. Was a great clean room and we couldn't ask for more. So we returned and asked for our room back we were staying for a week and I called and reserved it. When we showed up, our reservation "cancelled" its self out of their system, so after 20 minuets of going back and fourth we were given room 126, which leaked terribly and on Friday we began to complain told the manager would be in with the maintenance on Saturday which wasn't true  we wanted out of our room as it continued to leak all over my boyfriend spent all weekend bailing water out of the kitchen in the room and we couldn't even get our money back because the manager wasn't there, and no one else could help us. Monday night we went to the office again, and was told the manager would be in on the following morning to open and she would help us then. We are only getting a refund for the nights we still had remaining even though this issue was put off tor three additional days and no resolve during our time there several other people came in on Monday evening and could not get an attendant one man banged on the door for 30 min because his room key no longer worked he finally gave up and just...My boyfriend and I stayed in this hotel a few months ago and loved it. Was a great clean room and we couldn't ask for more. So we returned and asked for our room back we were staying for a week and I called and reserved it. When we showed up, our reservation "cancelled" its self out of their system, so after 20 minuets of going back and fourth we were given room 126, which leaked terribly and on Friday we began to complain told the manager would be in with the maintenance on Saturday which wasn't true  we wanted out of our room as it continued to leak all over my boyfriend spent all weekend bailing water out of the kitchen in the room and we couldn't even get our money back because the manager wasn't there, and no one else could help us. Monday night we went to the office again, and was told the manager would be in on the following morning to open and she would help us then. We are only getting a refund for the nights we still had remaining even though this issue was put off tor three additional days and no resolve during our time there several other people came in on Monday evening and could not get an attendant one man banged on the door for 30 min because his room key no longer worked he finally gave up and just left. I have was very shocked how this was handled and will never go back, oh and the refund has to be sent from Corporate in check form, and we paid cash for the room. &amp; days we got 3 days back. They are lucky my boyfriend bailed the water or they would be replacing the kitchen floor and carpet. It's a shame and I am disappointed in how this was handled.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded August 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2013</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed in this hotel a few months ago and loved it. Was a great clean room and we couldn't ask for more. So we returned and asked for our room back we were staying for a week and I called and reserved it. When we showed up, our reservation "cancelled" its self out of their system, so after 20 minuets of going back and fourth we were given room 126, which leaked terribly and on Friday we began to complain told the manager would be in with the maintenance on Saturday which wasn't true  we wanted out of our room as it continued to leak all over my boyfriend spent all weekend bailing water out of the kitchen in the room and we couldn't even get our money back because the manager wasn't there, and no one else could help us. Monday night we went to the office again, and was told the manager would be in on the following morning to open and she would help us then. We are only getting a refund for the nights we still had remaining even though this issue was put off tor three additional days and no resolve during our time there several other people came in on Monday evening and could not get an attendant one man banged on the door for 30 min because his room key no longer worked he finally gave up and just...My boyfriend and I stayed in this hotel a few months ago and loved it. Was a great clean room and we couldn't ask for more. So we returned and asked for our room back we were staying for a week and I called and reserved it. When we showed up, our reservation "cancelled" its self out of their system, so after 20 minuets of going back and fourth we were given room 126, which leaked terribly and on Friday we began to complain told the manager would be in with the maintenance on Saturday which wasn't true  we wanted out of our room as it continued to leak all over my boyfriend spent all weekend bailing water out of the kitchen in the room and we couldn't even get our money back because the manager wasn't there, and no one else could help us. Monday night we went to the office again, and was told the manager would be in on the following morning to open and she would help us then. We are only getting a refund for the nights we still had remaining even though this issue was put off tor three additional days and no resolve during our time there several other people came in on Monday evening and could not get an attendant one man banged on the door for 30 min because his room key no longer worked he finally gave up and just left. I have was very shocked how this was handled and will never go back, oh and the refund has to be sent from Corporate in check form, and we paid cash for the room. &amp; days we got 3 days back. They are lucky my boyfriend bailed the water or they would be replacing the kitchen floor and carpet. It's a shame and I am disappointed in how this was handled.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r167662988-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>167662988</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Very close to the worst room ever.</t>
+  </si>
+  <si>
+    <t>I had to defrost the freezer to get the refrigerator to cool, the toilet tank was leaking on the floor, the Wifi was so slow that one could not view video, the non-smoking room smelled of smoke.  An article accidentally left in the room, could not be retrieved by a friend passing through the area the very next day!  We were told the following day it had been trashed.  In the 7 days I was there, it was not cleaned once.  Cigarette butts &amp; dog feces outside abound.  The bed was comfortable.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r166571387-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -683,9 +1062,6 @@
   </si>
   <si>
     <t>The room was a nice size, but it smelled like smoke even though it was a NON Smoking room!!! There was not a lot of noise for being by a busy street and highway. It was not the worst Hotel I have stayed at but it is not the best either, I thought it was a little high in price for the room, but overall it was a good stay.MoreShow less</t>
-  </si>
-  <si>
-    <t>July 2013</t>
   </si>
   <si>
     <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded July 11, 2013</t>
@@ -764,6 +1140,48 @@
 4.  Half of all the water handles...I can say some good things about this hotel:1.  The beds (at least mine) were very comfortable.2.  The staff is very friendly if not overly helpful.3.  The location is very convenient.Unfortunately, that's where the good stuff ends:1.  The wifi is indeed free but is still overpriced even at free.  There is a 1MB connection to be shared by all guests and it will make you feel sentimental for those days of 1200 baud dial up modems.  Took 40 minutes to download a 5MB file.  But you can get up at 3AM and get a decent (not good) internet speed.  I complained and was told that many had complained, that they had new equipment ordered, but it had been on order for some time and they had no idea if or when it might arrive or be installed.  I called the tech support line and got a VERY helpful and knowledgeable person (case 6130177).  I was going to purchase the upgraded internet service but alas, THIS HOTEL doesn’t have or offer this service. 2.  Smoking is excluded from all rooms on floor 1 &amp; 2 but people smoke on the balcony and you might as well be smoking in your room.  Second hand smoke is everywhere and enters the room.3.  The mini (emphasis on MINI) fridge has a freezer that is ice bound but will not make ice.4.  Half of all the water handles (kitchen sink, bathroom sink, shower) turn in reverse causing instant scalding and freezing and management did not seem to care that this is a safety hazard and in violation of building code laws.5.  Toaster in the room?  Not here.6.  A side benefit: you get to know exactly when your next door neighbor gets up, goes to the bathroom, flushes the toilet, etc.  7.  If you have a Sprint phone, don't even bother turning it on.  You are either on roaming or have a "no signal". 8.  The bathroom sink will not seal closed to hold water.9.  Ditto for the kitchen sink.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r158080951-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>158080951</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>not good place to waste your money.</t>
+  </si>
+  <si>
+    <t>Don,t ever stay at Crossland Economy studios in Thornton its not worth the ads on website and hell dont look like it either and when u check out they changed prices on you when u leave to keep from returning refund in about 7-14 days when you paid cash up front i had non smoking room still found poeple standing outside smoking and they charge so much do your laundry there i ended up going to laundrymat  it was much cheaper and machines where better looking there was dogs barking alkinda noise arguements elevator didn't work was waiting on repair guy just so not worth it left went to sleep inn stay and feel safe never going back there in future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Don,t ever stay at Crossland Economy studios in Thornton its not worth the ads on website and hell dont look like it either and when u check out they changed prices on you when u leave to keep from returning refund in about 7-14 days when you paid cash up front i had non smoking room still found poeple standing outside smoking and they charge so much do your laundry there i ended up going to laundrymat  it was much cheaper and machines where better looking there was dogs barking alkinda noise arguements elevator didn't work was waiting on repair guy just so not worth it left went to sleep inn stay and feel safe never going back there in future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r157959467-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>157959467</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>Worst hotel and rudest employees i have ever seen.</t>
+  </si>
+  <si>
+    <t>Room was not clean blanket had burn holes in it and reeked of smoke mind you my room was non smoking. The staff was unfriendly and rude except Jnae the night clerk she was very nice and the most helpfull person in the whole place. On two ocassions I caught cleaning lady's smoking outside my room when asked to move they moveed down to the next door. I had a guy come by my room five times pool king for Steve evade toy Steve is a drug dealer I am not Steve nor am I a drug dealer on the fith time I met him at the door with a gun and he finally understood that I was not Steve or a drug dealer. My name is Kevin Parker I was in room 237. I regret ever staying there and recommend anyone els considering this hotel please consider somewhere els it's a wast of money. I want a refund but know that wont happen.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded June 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2013</t>
+  </si>
+  <si>
+    <t>Room was not clean blanket had burn holes in it and reeked of smoke mind you my room was non smoking. The staff was unfriendly and rude except Jnae the night clerk she was very nice and the most helpfull person in the whole place. On two ocassions I caught cleaning lady's smoking outside my room when asked to move they moveed down to the next door. I had a guy come by my room five times pool king for Steve evade toy Steve is a drug dealer I am not Steve nor am I a drug dealer on the fith time I met him at the door with a gun and he finally understood that I was not Steve or a drug dealer. My name is Kevin Parker I was in room 237. I regret ever staying there and recommend anyone els considering this hotel please consider somewhere els it's a wast of money. I want a refund but know that wont happen.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r156154868-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -839,6 +1257,57 @@
     <t>From the time I entered the office,I was greeted by very friendly helpful staff and was helped right away. My room was very spacious and clean, freshly carpeted and painted which was very nice. The location was convenient very close to I-25 &amp; downtown Denver. My stay was in all exceptional and I will stay again when I come back to town.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r150947722-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>150947722</t>
+  </si>
+  <si>
+    <t>Life Happens</t>
+  </si>
+  <si>
+    <t>We have been here over a month. We arrived on a last minute decision. The front desk staff was always friendly and very helpfull. During our stay, everytime we interacted with any of the staff at Crossland Economy Studios -Denver - Thornton, they  were always pleasant and took care of our needs immediately. The room was clean and both the kitchen and bathroom was filled with the items of everyday nessecities. Clean towels were provided daily, as well as all toiletries. I would reccomend Crossland  to all of my friends and family. We will be back in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded January 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2013</t>
+  </si>
+  <si>
+    <t>We have been here over a month. We arrived on a last minute decision. The front desk staff was always friendly and very helpfull. During our stay, everytime we interacted with any of the staff at Crossland Economy Studios -Denver - Thornton, they  were always pleasant and took care of our needs immediately. The room was clean and both the kitchen and bathroom was filled with the items of everyday nessecities. Clean towels were provided daily, as well as all toiletries. I would reccomend Crossland  to all of my friends and family. We will be back in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r150623381-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>150623381</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>My review</t>
+  </si>
+  <si>
+    <t>I have been here a little over a month and the staff have been great.  I am new to the area and they have been nothing but helpful.  The value was great and the location was convenient.  There was easy access to the interstate and everything else from grocery stores to a shopping mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Crossland Economy Studios - Denver - Thornton, responded to this reviewResponded January 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2013</t>
+  </si>
+  <si>
+    <t>I have been here a little over a month and the staff have been great.  I am new to the area and they have been nothing but helpful.  The value was great and the location was convenient.  There was easy access to the interstate and everything else from grocery stores to a shopping mall.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r145535566-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -917,6 +1386,45 @@
     <t>We were shocked by the conditions that we found at your hotel.We arrived at 1am Thursday night, absolutely exhausted. Jamee checked us in a very professional and friendly manner.We were given room #231 which had beg bugs all over the mattress, still alive, walking around. We took a video of it. Jamee kindly switched us to room #224. The lamp was broken, it was a dark and smelly. There were bed bugs and dried blood stains on the mattress. Another room infested with bed bugs. We were disgusted. We lost our faith in your brand. After spending close to two hours (checking rooms and making phone calls to try and find another hotel), we left. This ruined our night and the next day.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r127640895-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>127640895</t>
+  </si>
+  <si>
+    <t>04/10/2012</t>
+  </si>
+  <si>
+    <t>Lowest of the low in terms of cleanness, awful, should not be one star</t>
+  </si>
+  <si>
+    <t>Dirty, bed bugs, toilet didn't work,  used Priceline.  Total mis representation.  Priceline did help me move to comfort inn nearby.  Cross land charged me for cancellation.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dirty, bed bugs, toilet didn't work,  used Priceline.  Total mis representation.  Priceline did help me move to comfort inn nearby.  Cross land charged me for cancellation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r121936783-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>121936783</t>
+  </si>
+  <si>
+    <t>12/20/2011</t>
+  </si>
+  <si>
+    <t>Staff and guests are horrible!</t>
+  </si>
+  <si>
+    <t>Well lets see, theres a lot of people that have lived there for well over a year and always want to beg for money.  They have at least 1 prostitute living and working there and alot of the people are either out on parole or just always in trouble.  The cops are always there and its not a very good place for familes.  The rooms aren't bad for the money but i wouldn't try to keep anything fresh in the fridges and the hotel says they won't replace them.  Some of the front desk staff are good but some like the manager need to take some classes on guest relations.  Overall it's not bad but I wouldn't leave anything in your cars and pay a little more and go somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Well lets see, theres a lot of people that have lived there for well over a year and always want to beg for money.  They have at least 1 prostitute living and working there and alot of the people are either out on parole or just always in trouble.  The cops are always there and its not a very good place for familes.  The rooms aren't bad for the money but i wouldn't try to keep anything fresh in the fridges and the hotel says they won't replace them.  Some of the front desk staff are good but some like the manager need to take some classes on guest relations.  Overall it's not bad but I wouldn't leave anything in your cars and pay a little more and go somewhere else.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r119802895-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -978,6 +1486,47 @@
   </si>
   <si>
     <t>We have stayed at Crosslands three times and plan several more trip to Crossland.  It is centrally located for our business, stores and restaurants, as well as fast food places.We have stayed in both the single and two queen smoking rooms.  We found the single a tad small for us and all the things we bring.  The queen is much more roomy and we like it.  The rooms have always been very clean and well kept.  Having a frig, microwave is very good.  Also, plates, bowels, flatware and pots, pans and a stove are a great addition.The office staff is always helpful and cheery (when I request extra coffee., or when I needed another key card). Even the maid service people are great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r73777286-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>73777286</t>
+  </si>
+  <si>
+    <t>08/04/2010</t>
+  </si>
+  <si>
+    <t>Worst hotel experience I have ever had</t>
+  </si>
+  <si>
+    <t>First of all, I know that you usually get what you pay for.  Seeing as this is an economy extended stay hotel, my expectations of this hotel were not that high to begin with.  I travel very frequently and usually stay in nicer brands, but this was booked very last minute and I settled for a cheaper option.  
+Upon check-in, I learned that there are no irons and ironing boards in the rooms.  This is king of a big deal because I was in town for a job interview and I did not want to wear wrinkled clothes to a job interview.  The reservation agent on duty at the time told me they have irons but all of the irons are currently out on loan to residents (yes there are several people who actually live at this hotel since it is an extended stay hotel).  She assured me that one was coming back shortly and she would be sure to reserve it for me the following morning.  I came back the next morning as soon as the office opened and wouldn't you know it, there was no iron reserved for me.  There was a new reservation agent on duty at this point and she had no interest in helping me find an iron even after I explained that I have a job interview in a few hours and I cannot show up with wrinkled clothes.  Her response was "I'm sorry"....First of all, I know that you usually get what you pay for.  Seeing as this is an economy extended stay hotel, my expectations of this hotel were not that high to begin with.  I travel very frequently and usually stay in nicer brands, but this was booked very last minute and I settled for a cheaper option.  Upon check-in, I learned that there are no irons and ironing boards in the rooms.  This is king of a big deal because I was in town for a job interview and I did not want to wear wrinkled clothes to a job interview.  The reservation agent on duty at the time told me they have irons but all of the irons are currently out on loan to residents (yes there are several people who actually live at this hotel since it is an extended stay hotel).  She assured me that one was coming back shortly and she would be sure to reserve it for me the following morning.  I came back the next morning as soon as the office opened and wouldn't you know it, there was no iron reserved for me.  There was a new reservation agent on duty at this point and she had no interest in helping me find an iron even after I explained that I have a job interview in a few hours and I cannot show up with wrinkled clothes.  Her response was "I'm sorry".  That's it!  She could have at least offered to see which rooms had irons that should have already been brought back, but she was obviously not interested in helping.As I previously mentioned, there are several people that live here month-to-month since it is a cheap alternative to signing a 12-monthe lease in an actual apartment.  The problem is that these people seemed to think they owned the place and had no regard for the other guests.  There were several people out on the balcony at 2-3 am screaming and making tons of noise.  In addition, it sounded like the studio above me had a skate ramp built inside it and the tenants were doing jumps and tricks at 4 am.  I'm sure they don't really have a skate park in their studio, but that is what it sounded like.  Needless to stay, I got virtually no sleep.  Basically, I showed up to the job interview with wrinkled clothes running on zero sleep.  I wonder if I will get the job?????I definitely recommend spending a little extra money to stay at nicer hotels in nearby Westminster or Broomfield.  You won't regret it.MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all, I know that you usually get what you pay for.  Seeing as this is an economy extended stay hotel, my expectations of this hotel were not that high to begin with.  I travel very frequently and usually stay in nicer brands, but this was booked very last minute and I settled for a cheaper option.  
+Upon check-in, I learned that there are no irons and ironing boards in the rooms.  This is king of a big deal because I was in town for a job interview and I did not want to wear wrinkled clothes to a job interview.  The reservation agent on duty at the time told me they have irons but all of the irons are currently out on loan to residents (yes there are several people who actually live at this hotel since it is an extended stay hotel).  She assured me that one was coming back shortly and she would be sure to reserve it for me the following morning.  I came back the next morning as soon as the office opened and wouldn't you know it, there was no iron reserved for me.  There was a new reservation agent on duty at this point and she had no interest in helping me find an iron even after I explained that I have a job interview in a few hours and I cannot show up with wrinkled clothes.  Her response was "I'm sorry"....First of all, I know that you usually get what you pay for.  Seeing as this is an economy extended stay hotel, my expectations of this hotel were not that high to begin with.  I travel very frequently and usually stay in nicer brands, but this was booked very last minute and I settled for a cheaper option.  Upon check-in, I learned that there are no irons and ironing boards in the rooms.  This is king of a big deal because I was in town for a job interview and I did not want to wear wrinkled clothes to a job interview.  The reservation agent on duty at the time told me they have irons but all of the irons are currently out on loan to residents (yes there are several people who actually live at this hotel since it is an extended stay hotel).  She assured me that one was coming back shortly and she would be sure to reserve it for me the following morning.  I came back the next morning as soon as the office opened and wouldn't you know it, there was no iron reserved for me.  There was a new reservation agent on duty at this point and she had no interest in helping me find an iron even after I explained that I have a job interview in a few hours and I cannot show up with wrinkled clothes.  Her response was "I'm sorry".  That's it!  She could have at least offered to see which rooms had irons that should have already been brought back, but she was obviously not interested in helping.As I previously mentioned, there are several people that live here month-to-month since it is a cheap alternative to signing a 12-monthe lease in an actual apartment.  The problem is that these people seemed to think they owned the place and had no regard for the other guests.  There were several people out on the balcony at 2-3 am screaming and making tons of noise.  In addition, it sounded like the studio above me had a skate ramp built inside it and the tenants were doing jumps and tricks at 4 am.  I'm sure they don't really have a skate park in their studio, but that is what it sounded like.  Needless to stay, I got virtually no sleep.  Basically, I showed up to the job interview with wrinkled clothes running on zero sleep.  I wonder if I will get the job?????I definitely recommend spending a little extra money to stay at nicer hotels in nearby Westminster or Broomfield.  You won't regret it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r70831187-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>70831187</t>
+  </si>
+  <si>
+    <t>07/13/2010</t>
+  </si>
+  <si>
+    <t>Tacky and uncomfortable.</t>
+  </si>
+  <si>
+    <t>Like a previous reviewer, there was a giant black hair in my shower. They don't even provide shampoo, just a horrible bar of cheap hotel soap. They make a big deal about the kitchenette, but who really needs electric burners and pots and pans in their dinky hotel room... There's a coffee-maker, but no creamer or sugar... No hairdryer. No nothing. The bed which they call a double, is pretty much a single. Two people could not sleep in this bed.  The bed is hard as a rock and was collapsed on the front end until I propped it back up... This is seriously the biggest dump I've ever stayed in and I sometimes like the charm of a kitschy hotel. There is no charm here. Also this area of town looks moderately nice, but the people are really trashy (literally walking around barefoot and without teeth)... scary.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>Like a previous reviewer, there was a giant black hair in my shower. They don't even provide shampoo, just a horrible bar of cheap hotel soap. They make a big deal about the kitchenette, but who really needs electric burners and pots and pans in their dinky hotel room... There's a coffee-maker, but no creamer or sugar... No hairdryer. No nothing. The bed which they call a double, is pretty much a single. Two people could not sleep in this bed.  The bed is hard as a rock and was collapsed on the front end until I propped it back up... This is seriously the biggest dump I've ever stayed in and I sometimes like the charm of a kitschy hotel. There is no charm here. Also this area of town looks moderately nice, but the people are really trashy (literally walking around barefoot and without teeth)... scary.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d85294-r66912445-Crossland_Economy_Studios_Denver_Thornton-Thornton_Colorado.html</t>
@@ -1573,7 +2122,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1581,17 +2130,15 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1599,7 +2146,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1615,58 +2162,48 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1682,58 +2219,52 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="X4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1749,52 +2280,46 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
       <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
       <c r="Y5" t="s">
         <v>77</v>
       </c>
@@ -1839,29 +2364,27 @@
         <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
         <v>85</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -1877,58 +2400,58 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>89</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>91</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
         <v>94</v>
-      </c>
-      <c r="X7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -1944,56 +2467,58 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>98</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" t="s">
-        <v>101</v>
-      </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -2009,7 +2534,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2018,47 +2543,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>104</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
         <v>105</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -2074,7 +2591,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2083,25 +2600,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2113,13 +2630,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="X10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -2135,52 +2652,54 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
         <v>120</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>121</v>
       </c>
-      <c r="J11" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11" t="s">
-        <v>123</v>
-      </c>
-      <c r="L11" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>125</v>
-      </c>
       <c r="O11" t="s">
-        <v>112</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>104</v>
-      </c>
-      <c r="X11" t="s">
-        <v>105</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -2196,56 +2715,56 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
         <v>127</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>128</v>
       </c>
-      <c r="J12" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" t="s">
-        <v>131</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>132</v>
-      </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -2261,58 +2780,58 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
         <v>134</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>135</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>136</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>137</v>
       </c>
-      <c r="L13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="s">
-        <v>139</v>
-      </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y13" t="s">
         <v>140</v>
-      </c>
-      <c r="X13" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -2328,56 +2847,58 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
         <v>143</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>144</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>145</v>
       </c>
-      <c r="K14" t="s">
-        <v>146</v>
-      </c>
-      <c r="L14" t="s">
-        <v>147</v>
-      </c>
       <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
         <v>4</v>
       </c>
-      <c r="N14" t="s">
-        <v>148</v>
-      </c>
-      <c r="O14" t="s">
-        <v>93</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -2393,52 +2914,56 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
         <v>152</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>153</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
         <v>154</v>
       </c>
-      <c r="K15" t="s">
+      <c r="O15" t="s">
         <v>155</v>
-      </c>
-      <c r="L15" t="s">
-        <v>156</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>148</v>
-      </c>
-      <c r="O15" t="s">
-        <v>103</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
         <v>157</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>158</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16">
@@ -2454,52 +2979,56 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>160</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>161</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>162</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>163</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>164</v>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>148</v>
-      </c>
       <c r="O16" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="X16" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
@@ -2515,7 +3044,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2524,53 +3053,47 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
         <v>2</v>
       </c>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="X17" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y17" t="s">
         <v>173</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="18">
@@ -2586,52 +3109,50 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>175</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>176</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>177</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>178</v>
       </c>
-      <c r="L18" t="s">
-        <v>179</v>
-      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
+      <c r="N18" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" t="s">
+        <v>155</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>165</v>
+      </c>
+      <c r="X18" t="s">
+        <v>166</v>
+      </c>
       <c r="Y18" t="s">
         <v>179</v>
       </c>
@@ -2670,41 +3191,37 @@
         <v>184</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>185</v>
-      </c>
-      <c r="O19" t="s">
-        <v>53</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="X19" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
@@ -2720,47 +3237,41 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
         <v>189</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>190</v>
-      </c>
-      <c r="J20" t="s">
-        <v>191</v>
-      </c>
-      <c r="K20" t="s">
-        <v>192</v>
-      </c>
-      <c r="L20" t="s">
-        <v>193</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>194</v>
       </c>
       <c r="O20" t="s">
         <v>53</v>
       </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R20" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>1</v>
@@ -2769,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="X20" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
@@ -2791,7 +3302,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2800,53 +3311,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="X21" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="Y21" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
@@ -2862,7 +3363,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2871,49 +3372,47 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" t="n">
         <v>4</v>
       </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>165</v>
+      </c>
+      <c r="X22" t="s">
+        <v>166</v>
+      </c>
       <c r="Y22" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
@@ -2929,7 +3428,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2938,25 +3437,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -2964,27 +3463,23 @@
       <c r="Q23" t="n">
         <v>2</v>
       </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="X23" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="Y23" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
@@ -3000,7 +3495,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3009,34 +3504,34 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K24" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
+      <c r="N24" t="s">
+        <v>210</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
       <c r="P24" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
         <v>1</v>
       </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>1</v>
@@ -3045,13 +3540,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="X24" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="Y24" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
@@ -3067,7 +3562,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3076,53 +3571,47 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>103</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="X25" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -3138,7 +3627,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3147,53 +3636,47 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="O26" t="s">
-        <v>69</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
+        <v>59</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
         <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="X26" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="Y26" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
@@ -3209,7 +3692,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3218,53 +3701,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="J27" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s">
-        <v>69</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>3</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="Y27" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
@@ -3280,7 +3753,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3289,49 +3762,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O28" t="s">
+        <v>155</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="X28" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="Y28" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
@@ -3347,7 +3814,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3356,49 +3823,49 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s"/>
       <c r="O29" t="s"/>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="X29" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="Y29" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30">
@@ -3414,7 +3881,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3423,25 +3890,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3450,26 +3917,26 @@
         <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="X30" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="Y30" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
@@ -3485,7 +3952,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3494,22 +3961,22 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
@@ -3528,19 +3995,19 @@
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="X31" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="Y31" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32">
@@ -3556,7 +4023,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3565,41 +4032,37 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="J32" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
-      </c>
-      <c r="N32" t="s">
-        <v>296</v>
-      </c>
-      <c r="O32" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3607,7 +4070,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33">
@@ -3623,7 +4086,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3632,31 +4095,35 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="J33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="O33" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
       </c>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
       <c r="S33" t="n">
         <v>1</v>
       </c>
@@ -3667,10 +4134,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>286</v>
+      </c>
+      <c r="X33" t="s">
+        <v>287</v>
+      </c>
       <c r="Y33" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34">
@@ -3686,7 +4157,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3695,41 +4166,37 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="J34" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="K34" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="L34" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
-      </c>
-      <c r="N34" t="s">
-        <v>310</v>
-      </c>
-      <c r="O34" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3737,7 +4204,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35">
@@ -3753,7 +4220,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3762,49 +4229,53 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="J35" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>301</v>
+      </c>
+      <c r="X35" t="s">
+        <v>302</v>
+      </c>
       <c r="Y35" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36">
@@ -3820,7 +4291,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3829,25 +4300,25 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="J36" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="K36" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="O36" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -3868,10 +4339,14 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>301</v>
+      </c>
+      <c r="X36" t="s">
+        <v>302</v>
+      </c>
       <c r="Y36" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37">
@@ -3887,7 +4362,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3896,37 +4371,37 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="J37" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="K37" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="O37" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -3935,10 +4410,1770 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>316</v>
+      </c>
+      <c r="X37" t="s">
+        <v>317</v>
+      </c>
       <c r="Y37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" t="s">
+        <v>322</v>
+      </c>
+      <c r="L38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>324</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" t="s">
+        <v>328</v>
+      </c>
+      <c r="K39" t="s">
+        <v>329</v>
+      </c>
+      <c r="L39" t="s">
         <v>330</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>262</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>331</v>
+      </c>
+      <c r="X39" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>334</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>335</v>
+      </c>
+      <c r="J40" t="s">
+        <v>336</v>
+      </c>
+      <c r="K40" t="s">
+        <v>337</v>
+      </c>
+      <c r="L40" t="s">
+        <v>338</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>262</v>
+      </c>
+      <c r="O40" t="s">
+        <v>84</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>339</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>340</v>
+      </c>
+      <c r="J41" t="s">
+        <v>341</v>
+      </c>
+      <c r="K41" t="s">
+        <v>342</v>
+      </c>
+      <c r="L41" t="s">
+        <v>343</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>262</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>344</v>
+      </c>
+      <c r="X41" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>347</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>352</v>
+      </c>
+      <c r="X42" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>356</v>
+      </c>
+      <c r="J43" t="s">
+        <v>357</v>
+      </c>
+      <c r="K43" t="s">
+        <v>358</v>
+      </c>
+      <c r="L43" t="s">
+        <v>359</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>360</v>
+      </c>
+      <c r="O43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>361</v>
+      </c>
+      <c r="X43" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>364</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>365</v>
+      </c>
+      <c r="J44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K44" t="s">
+        <v>367</v>
+      </c>
+      <c r="L44" t="s">
+        <v>368</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>360</v>
+      </c>
+      <c r="O44" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>361</v>
+      </c>
+      <c r="X44" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>370</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J45" t="s">
+        <v>372</v>
+      </c>
+      <c r="K45" t="s">
+        <v>373</v>
+      </c>
+      <c r="L45" t="s">
+        <v>374</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>375</v>
+      </c>
+      <c r="X45" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>378</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>379</v>
+      </c>
+      <c r="J46" t="s">
+        <v>380</v>
+      </c>
+      <c r="K46" t="s">
+        <v>381</v>
+      </c>
+      <c r="L46" t="s">
+        <v>382</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>383</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>384</v>
+      </c>
+      <c r="X46" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>388</v>
+      </c>
+      <c r="J47" t="s">
+        <v>389</v>
+      </c>
+      <c r="K47" t="s">
+        <v>390</v>
+      </c>
+      <c r="L47" t="s">
+        <v>391</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>383</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>392</v>
+      </c>
+      <c r="X47" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>396</v>
+      </c>
+      <c r="J48" t="s">
+        <v>397</v>
+      </c>
+      <c r="K48" t="s">
+        <v>398</v>
+      </c>
+      <c r="L48" t="s">
+        <v>399</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>400</v>
+      </c>
+      <c r="X48" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>403</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>404</v>
+      </c>
+      <c r="J49" t="s">
+        <v>397</v>
+      </c>
+      <c r="K49" t="s">
+        <v>405</v>
+      </c>
+      <c r="L49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>407</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>408</v>
+      </c>
+      <c r="X49" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>411</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>412</v>
+      </c>
+      <c r="J50" t="s">
+        <v>413</v>
+      </c>
+      <c r="K50" t="s">
+        <v>414</v>
+      </c>
+      <c r="L50" t="s">
+        <v>415</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>416</v>
+      </c>
+      <c r="O50" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>417</v>
+      </c>
+      <c r="X50" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>420</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>421</v>
+      </c>
+      <c r="J51" t="s">
+        <v>422</v>
+      </c>
+      <c r="K51" t="s">
+        <v>423</v>
+      </c>
+      <c r="L51" t="s">
+        <v>424</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>425</v>
+      </c>
+      <c r="X51" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>428</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>429</v>
+      </c>
+      <c r="J52" t="s">
+        <v>430</v>
+      </c>
+      <c r="K52" t="s">
+        <v>431</v>
+      </c>
+      <c r="L52" t="s">
+        <v>432</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>433</v>
+      </c>
+      <c r="O52" t="s">
+        <v>84</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>434</v>
+      </c>
+      <c r="X52" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>437</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>438</v>
+      </c>
+      <c r="J53" t="s">
+        <v>439</v>
+      </c>
+      <c r="K53" t="s">
+        <v>440</v>
+      </c>
+      <c r="L53" t="s">
+        <v>441</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>442</v>
+      </c>
+      <c r="O53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>443</v>
+      </c>
+      <c r="X53" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>446</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>447</v>
+      </c>
+      <c r="J54" t="s">
+        <v>448</v>
+      </c>
+      <c r="K54" t="s">
+        <v>449</v>
+      </c>
+      <c r="L54" t="s">
+        <v>450</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>434</v>
+      </c>
+      <c r="X54" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>452</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>453</v>
+      </c>
+      <c r="J55" t="s">
+        <v>454</v>
+      </c>
+      <c r="K55" t="s">
+        <v>455</v>
+      </c>
+      <c r="L55" t="s">
+        <v>456</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>457</v>
+      </c>
+      <c r="O55" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>459</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>460</v>
+      </c>
+      <c r="J56" t="s">
+        <v>461</v>
+      </c>
+      <c r="K56" t="s">
+        <v>462</v>
+      </c>
+      <c r="L56" t="s">
+        <v>463</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>464</v>
+      </c>
+      <c r="O56" t="s">
+        <v>84</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>466</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>467</v>
+      </c>
+      <c r="J57" t="s">
+        <v>468</v>
+      </c>
+      <c r="K57" t="s">
+        <v>469</v>
+      </c>
+      <c r="L57" t="s">
+        <v>470</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>471</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>474</v>
+      </c>
+      <c r="J58" t="s">
+        <v>475</v>
+      </c>
+      <c r="K58" t="s">
+        <v>476</v>
+      </c>
+      <c r="L58" t="s">
+        <v>477</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>478</v>
+      </c>
+      <c r="O58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>480</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>481</v>
+      </c>
+      <c r="J59" t="s">
+        <v>482</v>
+      </c>
+      <c r="K59" t="s">
+        <v>483</v>
+      </c>
+      <c r="L59" t="s">
+        <v>484</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>478</v>
+      </c>
+      <c r="O59" t="s">
+        <v>84</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>486</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>487</v>
+      </c>
+      <c r="J60" t="s">
+        <v>488</v>
+      </c>
+      <c r="K60" t="s">
+        <v>489</v>
+      </c>
+      <c r="L60" t="s">
+        <v>490</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>491</v>
+      </c>
+      <c r="O60" t="s">
+        <v>84</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>493</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>494</v>
+      </c>
+      <c r="J61" t="s">
+        <v>495</v>
+      </c>
+      <c r="K61" t="s">
+        <v>496</v>
+      </c>
+      <c r="L61" t="s">
+        <v>497</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>498</v>
+      </c>
+      <c r="O61" t="s">
+        <v>84</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>500</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>501</v>
+      </c>
+      <c r="J62" t="s">
+        <v>502</v>
+      </c>
+      <c r="K62" t="s">
+        <v>503</v>
+      </c>
+      <c r="L62" t="s">
+        <v>504</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>505</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38013</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>507</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>508</v>
+      </c>
+      <c r="J63" t="s">
+        <v>509</v>
+      </c>
+      <c r="K63" t="s">
+        <v>510</v>
+      </c>
+      <c r="L63" t="s">
+        <v>511</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>505</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
